--- a/DNAdilutionTemplate.xlsx
+++ b/DNAdilutionTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050E314-1FEE-224E-AA73-9C05CBAD8295}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBB8888-DC82-3248-84B3-1922C434349C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="460" windowWidth="12840" windowHeight="13360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14980" yWindow="460" windowWidth="14180" windowHeight="13360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet to Print From" sheetId="1" r:id="rId1"/>
@@ -6831,8 +6831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A743" workbookViewId="0">
-      <selection activeCell="A757" sqref="A757"/>
+    <sheetView tabSelected="1" topLeftCell="A858" workbookViewId="0">
+      <selection activeCell="A882" sqref="A882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DNAdilutionTemplate.xlsx
+++ b/DNAdilutionTemplate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBB8888-DC82-3248-84B3-1922C434349C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD67F23-4728-984F-84CD-F291EC2EA601}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="460" windowWidth="14180" windowHeight="13360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="21440" windowHeight="13360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet to Print From" sheetId="1" r:id="rId1"/>
     <sheet name="All Dilutions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'All Dilutions'!$A$1:$J$126</definedName>
@@ -253,8 +254,115 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Samantha</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{CFD8711A-1EFE-CB46-900A-DFD28CE38875}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samantha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Diluting RNA to a concentration of 20 ng/u
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C1 V1=C2 V2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">((C1 V1)/C2)=V2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4E9146A1-4E30-5846-84E6-529B6BF9A678}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samantha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>final volume/RNA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1124">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -3494,6 +3602,138 @@
   </si>
   <si>
     <t>K7-26</t>
+  </si>
+  <si>
+    <t>H2-1-12</t>
+  </si>
+  <si>
+    <t>EL-21</t>
+  </si>
+  <si>
+    <t>1-17</t>
+  </si>
+  <si>
+    <t>E2-1-3</t>
+  </si>
+  <si>
+    <t>W2-1-6</t>
+  </si>
+  <si>
+    <t>X2-1-11</t>
+  </si>
+  <si>
+    <t>R2-1-2</t>
+  </si>
+  <si>
+    <t>P2-1-15</t>
+  </si>
+  <si>
+    <t>O2-1-3</t>
+  </si>
+  <si>
+    <t>Q2-1-24</t>
+  </si>
+  <si>
+    <t>E2-1-27</t>
+  </si>
+  <si>
+    <t>K2-1-4</t>
+  </si>
+  <si>
+    <t>I2-1-27</t>
+  </si>
+  <si>
+    <t>E2-1-4</t>
+  </si>
+  <si>
+    <t>J2-1-20</t>
+  </si>
+  <si>
+    <t>S2-1-27</t>
+  </si>
+  <si>
+    <t>AA2-1-1</t>
+  </si>
+  <si>
+    <t>B2-1-3</t>
+  </si>
+  <si>
+    <t>J2-1-12</t>
+  </si>
+  <si>
+    <t>X2-1-26</t>
+  </si>
+  <si>
+    <t>I2-1-1</t>
+  </si>
+  <si>
+    <t>V2-1-12</t>
+  </si>
+  <si>
+    <t>Y2-1-20</t>
+  </si>
+  <si>
+    <t>Y2-1-27</t>
+  </si>
+  <si>
+    <t>H2-1-10</t>
+  </si>
+  <si>
+    <t>BB2-1-1</t>
+  </si>
+  <si>
+    <t>E2-1-1</t>
+  </si>
+  <si>
+    <t>S2-1-28</t>
+  </si>
+  <si>
+    <t>CC2-1-15</t>
+  </si>
+  <si>
+    <t>I2-1-28</t>
+  </si>
+  <si>
+    <t>Q2-1-15</t>
+  </si>
+  <si>
+    <t>AA2-1-2</t>
+  </si>
+  <si>
+    <t>S2-1-18</t>
+  </si>
+  <si>
+    <t>H2-1-7</t>
+  </si>
+  <si>
+    <t>I2-1-4</t>
+  </si>
+  <si>
+    <t>Q2-1-20</t>
+  </si>
+  <si>
+    <t>CC2-1-14</t>
+  </si>
+  <si>
+    <t>B2-1-9</t>
+  </si>
+  <si>
+    <t>U2-1-28</t>
+  </si>
+  <si>
+    <t>U2-1-26</t>
+  </si>
+  <si>
+    <t>T2-1-4</t>
+  </si>
+  <si>
+    <t>P2-1-1</t>
+  </si>
+  <si>
+    <t>N2-1-3</t>
+  </si>
+  <si>
+    <t>V2-1-17</t>
   </si>
 </sst>
 </file>
@@ -3503,7 +3743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3605,8 +3845,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3628,6 +3888,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -3717,7 +3983,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3781,6 +4047,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="74">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -3858,7 +4139,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4319,15 +4620,15 @@
   </sheetPr>
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="7"/>
     <col min="2" max="2" width="9.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="6" style="7" customWidth="1"/>
     <col min="5" max="6" width="7.33203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
@@ -4379,1266 +4680,1172 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>951</v>
-      </c>
-      <c r="C2" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D2" s="26">
-        <v>52.6</v>
-      </c>
-      <c r="E2" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="F2" s="26">
-        <v>2.08</v>
+      <c r="B2" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D2" s="13">
+        <v>22.2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2.14</v>
       </c>
       <c r="G2" s="23">
         <v>20</v>
       </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H43" si="0">100*20</f>
-        <v>2000</v>
-      </c>
-      <c r="I2" s="20">
-        <f t="shared" ref="I2:I43" si="1">K2-G2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <f t="shared" ref="J2:J43" si="2">(K2/G2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>20</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M2" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="H2" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="37">
+        <v>0</v>
+      </c>
+      <c r="J2" s="38">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13">
+        <v>20</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>952</v>
-      </c>
-      <c r="C3" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D3" s="26">
-        <v>47.4</v>
-      </c>
-      <c r="E3" s="26">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F3" s="26">
-        <v>2.06</v>
+      <c r="B3" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C3" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D3" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1.1399999999999999</v>
       </c>
       <c r="G3" s="23">
         <v>20</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I3" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K3" s="7">
-        <v>20</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M3" s="7">
-        <v>25</v>
+      <c r="H3" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>20</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>953</v>
-      </c>
-      <c r="C4" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D4" s="26">
-        <v>33.5</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1.86</v>
-      </c>
-      <c r="F4" s="26">
-        <v>2.14</v>
+      <c r="B4" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D4" s="13">
+        <v>47</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.89</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2.12</v>
       </c>
       <c r="G4" s="23">
         <v>20</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>20</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M4" s="7">
-        <v>25</v>
+      <c r="H4" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>20</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>954</v>
-      </c>
-      <c r="C5" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D5" s="26">
-        <v>116.7</v>
-      </c>
-      <c r="E5" s="26">
-        <v>1.99</v>
-      </c>
-      <c r="F5" s="26">
-        <v>2.2200000000000002</v>
+      <c r="B5" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D5" s="13">
+        <v>23.4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1.74</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
       </c>
       <c r="G5" s="23">
-        <f t="shared" ref="G5:G24" si="3">H5/D5</f>
-        <v>17.13796058269066</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I5" s="20">
-        <f t="shared" si="1"/>
-        <v>2.8620394173093402</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="2"/>
-        <v>1.167</v>
-      </c>
-      <c r="K5" s="7">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M5" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>955</v>
-      </c>
-      <c r="C6" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D6" s="26">
-        <v>10.3</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1.67</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1.64</v>
-      </c>
-      <c r="G6" s="23">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>20</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M6" s="7">
-        <v>25</v>
+      <c r="B6" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D6" s="13">
+        <v>106.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G6" s="40">
+        <v>20</v>
+      </c>
+      <c r="H6" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>20</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>956</v>
-      </c>
-      <c r="C7" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D7" s="26">
-        <v>136.1</v>
-      </c>
-      <c r="E7" s="26">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F7" s="26">
-        <v>2.15</v>
+      <c r="B7" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D7" s="13">
+        <v>44.4</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.83</v>
       </c>
       <c r="G7" s="23">
-        <f t="shared" si="3"/>
-        <v>14.695077149155034</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="1"/>
-        <v>5.3049228508449655</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="2"/>
-        <v>1.3609999999999998</v>
-      </c>
-      <c r="K7" s="7">
-        <v>20</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M7" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H7" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>20</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>957</v>
-      </c>
-      <c r="C8" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D8" s="26">
-        <v>88.7</v>
-      </c>
-      <c r="E8" s="26">
-        <v>1.99</v>
-      </c>
-      <c r="F8" s="26">
-        <v>2.16</v>
+      <c r="B8" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1.76</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.81</v>
       </c>
       <c r="G8" s="23">
         <v>20</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M8" s="7">
-        <v>25</v>
+      <c r="H8" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>20</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>958</v>
-      </c>
-      <c r="C9" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D9" s="26">
-        <v>96.9</v>
-      </c>
-      <c r="E9" s="26">
-        <v>2.02</v>
-      </c>
-      <c r="F9" s="26">
-        <v>2.25</v>
+      <c r="B9" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D9" s="13">
+        <v>93.8</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2.2400000000000002</v>
       </c>
       <c r="G9" s="23">
         <v>20</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>20</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M9" s="7">
-        <v>25</v>
+      <c r="H9" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
+        <v>20</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>959</v>
-      </c>
-      <c r="C10" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D10" s="26">
-        <v>7.3</v>
-      </c>
-      <c r="E10" s="26">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1.5</v>
+      <c r="B10" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D10" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1.77</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.98</v>
       </c>
       <c r="G10" s="23">
         <v>20</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>20</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M10" s="7">
-        <v>25</v>
+      <c r="H10" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>20</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>960</v>
-      </c>
-      <c r="C11" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D11" s="26">
-        <v>206.9</v>
-      </c>
-      <c r="E11" s="26">
-        <v>1.97</v>
-      </c>
-      <c r="F11" s="26">
-        <v>1.3</v>
+      <c r="B11" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D11" s="13">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2.1800000000000002</v>
       </c>
       <c r="G11" s="23">
-        <f t="shared" si="3"/>
-        <v>9.6665055582406954</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I11" s="20">
-        <f t="shared" si="1"/>
-        <v>10.333494441759305</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="2"/>
-        <v>2.069</v>
-      </c>
-      <c r="K11" s="7">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M11" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H11" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>20</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>961</v>
-      </c>
-      <c r="C12" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D12" s="26">
-        <v>31.7</v>
-      </c>
-      <c r="E12" s="26">
-        <v>1.92</v>
-      </c>
-      <c r="F12" s="26">
-        <v>2.16</v>
+      <c r="B12" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D12" s="13">
+        <v>53.8</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2.1</v>
       </c>
       <c r="G12" s="23">
         <v>20</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>20</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M12" s="7">
-        <v>25</v>
+      <c r="H12" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1</v>
+      </c>
+      <c r="K12" s="13">
+        <v>20</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>962</v>
-      </c>
-      <c r="C13" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D13" s="26">
-        <v>50.2</v>
-      </c>
-      <c r="E13" s="26">
-        <v>1.89</v>
-      </c>
-      <c r="F13" s="26">
-        <v>1.94</v>
+      <c r="B13" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D13" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1.93</v>
       </c>
       <c r="G13" s="23">
         <v>20</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <v>20</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M13" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13">
+        <v>20</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>963</v>
-      </c>
-      <c r="C14" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D14" s="26">
-        <v>190.8</v>
-      </c>
-      <c r="E14" s="26">
-        <v>2</v>
-      </c>
-      <c r="F14" s="26">
-        <v>2.2799999999999998</v>
+      <c r="B14" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D14" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1.81</v>
       </c>
       <c r="G14" s="23">
-        <f t="shared" si="3"/>
-        <v>10.482180293501047</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I14" s="20">
-        <f t="shared" si="1"/>
-        <v>9.5178197064989529</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9080000000000001</v>
-      </c>
-      <c r="K14" s="7">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M14" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <v>20</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>964</v>
-      </c>
-      <c r="C15" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D15" s="26">
-        <v>12.9</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="B15" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D15" s="13">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E15" s="13">
         <v>1.95</v>
       </c>
-      <c r="F15" s="26">
-        <v>1.71</v>
+      <c r="F15" s="13">
+        <v>2.06</v>
       </c>
       <c r="G15" s="23">
         <v>20</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>20</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M15" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13">
+        <v>20</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>965</v>
-      </c>
-      <c r="C16" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D16" s="26">
-        <v>17.7</v>
-      </c>
-      <c r="E16" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="F16" s="26">
-        <v>1.69</v>
-      </c>
-      <c r="G16" s="23">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>20</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M16" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D16" s="13">
+        <v>651.4</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1.89</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="G16" s="40">
+        <v>3.07</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="41">
+        <v>16.93</v>
+      </c>
+      <c r="J16" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="K16" s="13">
+        <v>20</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>966</v>
-      </c>
-      <c r="C17" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D17" s="26">
-        <v>29.8</v>
-      </c>
-      <c r="E17" s="26">
-        <v>1.98</v>
-      </c>
-      <c r="F17" s="26">
-        <v>1.99</v>
-      </c>
-      <c r="G17" s="23">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M17" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D17" s="13">
+        <v>120</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="G17" s="40">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="H17" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="41">
+        <v>3.33</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="13">
+        <v>20</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>967</v>
-      </c>
-      <c r="C18" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D18" s="26">
-        <v>383.6</v>
-      </c>
-      <c r="E18" s="26">
-        <v>1.83</v>
-      </c>
-      <c r="F18" s="26">
-        <v>2.2400000000000002</v>
+      <c r="B18" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C18" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D18" s="13">
+        <v>95.6</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1.77</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.1299999999999999</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="3"/>
-        <v>5.2137643378519289</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I18" s="20">
-        <f t="shared" si="1"/>
-        <v>14.786235662148071</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="2"/>
-        <v>3.8360000000000003</v>
-      </c>
-      <c r="K18" s="7">
-        <v>20</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M18" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H18" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="38">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13">
+        <v>20</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>968</v>
-      </c>
-      <c r="C19" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D19" s="26">
-        <v>42.7</v>
-      </c>
-      <c r="E19" s="26">
-        <v>1.96</v>
-      </c>
-      <c r="F19" s="26">
-        <v>1.94</v>
+      <c r="B19" s="13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D19" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2.1800000000000002</v>
       </c>
       <c r="G19" s="23">
         <v>20</v>
       </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I19" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>20</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="H19" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+      <c r="K19" s="13">
+        <v>20</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>969</v>
-      </c>
-      <c r="C20" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D20" s="26">
-        <v>11</v>
-      </c>
-      <c r="E20" s="26">
-        <v>1.7</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1.57</v>
+      <c r="B20" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C20" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D20" s="13">
+        <v>46.2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1.63</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.76</v>
       </c>
       <c r="G20" s="23">
         <v>20</v>
       </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I20" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="7">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M20" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="H20" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13">
+        <v>20</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>970</v>
-      </c>
-      <c r="C21" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D21" s="26">
-        <v>21.9</v>
-      </c>
-      <c r="E21" s="26">
-        <v>1.88</v>
-      </c>
-      <c r="F21" s="26">
-        <v>1.68</v>
+      <c r="B21" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C21" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D21" s="13">
+        <v>29.1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1.52</v>
       </c>
       <c r="G21" s="23">
         <v>20</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I21" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
-        <v>20</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M21" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <v>20</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>971</v>
-      </c>
-      <c r="C22" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D22" s="26">
-        <v>18.7</v>
-      </c>
-      <c r="E22" s="26">
-        <v>1.8</v>
-      </c>
-      <c r="F22" s="26">
-        <v>1.56</v>
+      <c r="B22" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C22" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D22" s="13">
+        <v>91.6</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2.17</v>
       </c>
       <c r="G22" s="23">
         <v>20</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="7">
-        <v>20</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M22" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="H22" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="38">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13">
+        <v>20</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>972</v>
-      </c>
-      <c r="C23" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D23" s="26">
-        <v>121.6</v>
-      </c>
-      <c r="E23" s="26">
-        <v>1.83</v>
-      </c>
-      <c r="F23" s="26">
-        <v>2.19</v>
+      <c r="B23" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C23" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D23" s="13">
+        <v>71</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2.13</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="3"/>
-        <v>16.447368421052634</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I23" s="20">
-        <f t="shared" si="1"/>
-        <v>3.5526315789473664</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="2"/>
-        <v>1.2159999999999997</v>
-      </c>
-      <c r="K23" s="7">
-        <v>20</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M23" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0</v>
+      </c>
+      <c r="J23" s="38">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <v>20</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>973</v>
-      </c>
-      <c r="C24" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D24" s="26">
-        <v>112.6</v>
-      </c>
-      <c r="E24" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="F24" s="26">
-        <v>2.2200000000000002</v>
+      <c r="B24" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C24" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D24" s="13">
+        <v>32.6</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2.2400000000000002</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" si="3"/>
-        <v>17.761989342806395</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I24" s="20">
-        <f t="shared" si="1"/>
-        <v>2.2380106571936054</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="2"/>
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="K24" s="7">
-        <v>20</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M24" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H24" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="37">
+        <v>0</v>
+      </c>
+      <c r="J24" s="38">
+        <v>1</v>
+      </c>
+      <c r="K24" s="13">
+        <v>20</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>974</v>
-      </c>
-      <c r="C25" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D25" s="26">
-        <v>91.2</v>
-      </c>
-      <c r="E25" s="26">
-        <v>1.83</v>
-      </c>
-      <c r="F25" s="26">
-        <v>2.1800000000000002</v>
+      <c r="B25" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C25" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D25" s="13">
+        <v>20.9</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1.97</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1.94</v>
       </c>
       <c r="G25" s="23">
         <v>20</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I25" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="7">
-        <v>20</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M25" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="H25" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="J25" s="38">
+        <v>1</v>
+      </c>
+      <c r="K25" s="13">
+        <v>20</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>975</v>
-      </c>
-      <c r="C26" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D26" s="26">
-        <v>399.2</v>
-      </c>
-      <c r="E26" s="26">
-        <v>1.84</v>
-      </c>
-      <c r="F26" s="26">
-        <v>2.27</v>
+      <c r="B26" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C26" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D26" s="13">
+        <v>26</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1.79</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1.8</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" ref="G26:G43" si="4">H26/D26</f>
-        <v>5.0100200400801604</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I26" s="20">
-        <f t="shared" si="1"/>
-        <v>14.98997995991984</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="2"/>
-        <v>3.992</v>
-      </c>
-      <c r="K26" s="7">
-        <v>20</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M26" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="J26" s="38">
+        <v>1</v>
+      </c>
+      <c r="K26" s="13">
+        <v>20</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>976</v>
-      </c>
-      <c r="C27" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D27" s="26">
-        <v>295.89999999999998</v>
-      </c>
-      <c r="E27" s="26">
-        <v>1.91</v>
-      </c>
-      <c r="F27" s="26">
-        <v>2.2200000000000002</v>
+      <c r="B27" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C27" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D27" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1.85</v>
       </c>
       <c r="G27" s="23">
-        <f t="shared" si="4"/>
-        <v>6.7590402162892875</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I27" s="20">
-        <f t="shared" si="1"/>
-        <v>13.240959783710712</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="2"/>
-        <v>2.9589999999999996</v>
-      </c>
-      <c r="K27" s="7">
-        <v>20</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M27" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H27" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0</v>
+      </c>
+      <c r="J27" s="38">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
+        <v>20</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>977</v>
-      </c>
-      <c r="C28" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D28" s="26">
-        <v>95.5</v>
-      </c>
-      <c r="E28" s="26">
-        <v>1.92</v>
-      </c>
-      <c r="F28" s="26">
+      <c r="B28" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C28" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D28" s="13">
+        <v>96.8</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1.93</v>
+      </c>
+      <c r="F28" s="13">
         <v>2.12</v>
       </c>
       <c r="G28" s="23">
         <v>20</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I28" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="7">
-        <v>20</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M28" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="H28" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="37">
+        <v>0</v>
+      </c>
+      <c r="J28" s="38">
+        <v>1</v>
+      </c>
+      <c r="K28" s="13">
+        <v>20</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>978</v>
-      </c>
-      <c r="C29" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D29" s="26">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="E29" s="26">
-        <v>1.88</v>
-      </c>
-      <c r="F29" s="26">
-        <v>2.0699999999999998</v>
+      <c r="B29" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C29" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D29" s="13">
+        <v>24.2</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1.63</v>
       </c>
       <c r="G29" s="23">
-        <f t="shared" si="4"/>
-        <v>13.956734124214933</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I29" s="20">
-        <f t="shared" si="1"/>
-        <v>6.0432658757850675</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="K29" s="7">
-        <v>20</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M29" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H29" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I29" s="37">
+        <v>0</v>
+      </c>
+      <c r="J29" s="38">
+        <v>1</v>
+      </c>
+      <c r="K29" s="13">
+        <v>20</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="10"/>
@@ -5658,45 +5865,41 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>979</v>
-      </c>
-      <c r="C30" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D30" s="26">
-        <v>150.19999999999999</v>
-      </c>
-      <c r="E30" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="F30" s="26">
-        <v>2.21</v>
-      </c>
-      <c r="G30" s="23">
-        <f t="shared" si="4"/>
-        <v>13.315579227696405</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I30" s="20">
-        <f t="shared" si="1"/>
-        <v>6.6844207723035947</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="2"/>
-        <v>1.502</v>
-      </c>
-      <c r="K30" s="7">
-        <v>20</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M30" s="7">
-        <v>25</v>
+      <c r="B30" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C30" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D30" s="13">
+        <v>238.5</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2.19</v>
+      </c>
+      <c r="G30" s="40">
+        <v>8.39</v>
+      </c>
+      <c r="H30" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="41">
+        <v>11.61</v>
+      </c>
+      <c r="J30" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="K30" s="13">
+        <v>20</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="U30" s="25"/>
       <c r="V30" s="30"/>
@@ -5711,44 +5914,41 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>980</v>
-      </c>
-      <c r="C31" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D31" s="26">
-        <v>57.1</v>
-      </c>
-      <c r="E31" s="26">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F31" s="26">
-        <v>1.89</v>
+      <c r="B31" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C31" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1.08</v>
       </c>
       <c r="G31" s="23">
         <v>20</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I31" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="7">
-        <v>20</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M31" s="7">
-        <v>25</v>
+      <c r="H31" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0</v>
+      </c>
+      <c r="J31" s="38">
+        <v>1</v>
+      </c>
+      <c r="K31" s="13">
+        <v>20</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="30"/>
@@ -5763,45 +5963,41 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>981</v>
-      </c>
-      <c r="C32" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D32" s="26">
-        <v>143.9</v>
-      </c>
-      <c r="E32" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="F32" s="26">
-        <v>2.1800000000000002</v>
+      <c r="B32" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C32" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D32" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1.65</v>
       </c>
       <c r="G32" s="23">
-        <f t="shared" si="4"/>
-        <v>13.898540653231411</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I32" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1014593467685891</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="K32" s="7">
-        <v>20</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M32" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H32" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0</v>
+      </c>
+      <c r="J32" s="38">
+        <v>1</v>
+      </c>
+      <c r="K32" s="13">
+        <v>20</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="U32" s="25"/>
       <c r="V32" s="30"/>
@@ -5812,48 +6008,45 @@
       <c r="AA32" s="32"/>
       <c r="AB32" s="6"/>
     </row>
-    <row r="33" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>982</v>
-      </c>
-      <c r="C33" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D33" s="26">
-        <v>74.8</v>
-      </c>
-      <c r="E33" s="26">
-        <v>1.88</v>
-      </c>
-      <c r="F33" s="26">
-        <v>2.0699999999999998</v>
+      <c r="B33" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C33" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D33" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1.76</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1.69</v>
       </c>
       <c r="G33" s="23">
         <v>20</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I33" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="7">
-        <v>20</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M33" s="7">
-        <v>25</v>
+      <c r="H33" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0</v>
+      </c>
+      <c r="J33" s="38">
+        <v>1</v>
+      </c>
+      <c r="K33" s="13">
+        <v>20</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="10"/>
@@ -5873,44 +6066,41 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>983</v>
-      </c>
-      <c r="C34" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D34" s="26">
-        <v>8.1</v>
-      </c>
-      <c r="E34" s="26">
-        <v>1.71</v>
-      </c>
-      <c r="F34" s="26">
-        <v>1.18</v>
-      </c>
-      <c r="G34" s="23">
-        <v>20</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I34" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="7">
-        <v>20</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M34" s="7">
-        <v>25</v>
+      <c r="B34" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C34" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D34" s="13">
+        <v>282.8</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="F34" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G34" s="40">
+        <v>7.07</v>
+      </c>
+      <c r="H34" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="41">
+        <v>12.93</v>
+      </c>
+      <c r="J34" s="38">
+        <v>2.8</v>
+      </c>
+      <c r="K34" s="13">
+        <v>20</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R34" s="25"/>
       <c r="S34" s="30"/>
@@ -5925,44 +6115,41 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>984</v>
-      </c>
-      <c r="C35" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D35" s="26">
-        <v>94.6</v>
-      </c>
-      <c r="E35" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="F35" s="26">
-        <v>2</v>
-      </c>
-      <c r="G35" s="23">
-        <v>20</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I35" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="7">
-        <v>20</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M35" s="7">
-        <v>25</v>
+      <c r="B35" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C35" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D35" s="13">
+        <v>354</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G35" s="40">
+        <v>5.65</v>
+      </c>
+      <c r="H35" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="41">
+        <v>14.35</v>
+      </c>
+      <c r="J35" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="K35" s="13">
+        <v>20</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R35" s="25"/>
       <c r="S35" s="30"/>
@@ -5977,45 +6164,41 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>985</v>
-      </c>
-      <c r="C36" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D36" s="26">
-        <v>214.9</v>
-      </c>
-      <c r="E36" s="26">
-        <v>1.83</v>
-      </c>
-      <c r="F36" s="26">
-        <v>2.15</v>
-      </c>
-      <c r="G36" s="23">
-        <f t="shared" si="4"/>
-        <v>9.3066542577943228</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I36" s="20">
-        <f t="shared" si="1"/>
-        <v>10.693345742205677</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" si="2"/>
-        <v>2.149</v>
-      </c>
-      <c r="K36" s="7">
-        <v>20</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M36" s="7">
-        <v>25</v>
+      <c r="B36" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C36" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D36" s="13">
+        <v>205.7</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="F36" s="13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G36" s="40">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="H36" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="41">
+        <v>10.28</v>
+      </c>
+      <c r="J36" s="38">
+        <v>2.1</v>
+      </c>
+      <c r="K36" s="13">
+        <v>20</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R36" s="25"/>
       <c r="S36" s="30"/>
@@ -6030,44 +6213,41 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>986</v>
-      </c>
-      <c r="C37" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D37" s="26">
-        <v>102.4</v>
-      </c>
-      <c r="E37" s="26">
-        <v>1.81</v>
-      </c>
-      <c r="F37" s="26">
-        <v>2.04</v>
-      </c>
-      <c r="G37" s="23">
-        <v>20</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I37" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K37" s="7">
-        <v>20</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M37" s="7">
-        <v>25</v>
+      <c r="B37" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C37" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D37" s="13">
+        <v>124.2</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2.19</v>
+      </c>
+      <c r="G37" s="40">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H37" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I37" s="41">
+        <v>3.9</v>
+      </c>
+      <c r="J37" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="K37" s="13">
+        <v>20</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R37" s="25"/>
       <c r="S37" s="30"/>
@@ -6082,44 +6262,41 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>987</v>
-      </c>
-      <c r="C38" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D38" s="26">
-        <v>57.9</v>
-      </c>
-      <c r="E38" s="26">
-        <v>1.8</v>
-      </c>
-      <c r="F38" s="26">
+      <c r="B38" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C38" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D38" s="13">
+        <v>15.6</v>
+      </c>
+      <c r="E38" s="13">
         <v>1.91</v>
       </c>
+      <c r="F38" s="13">
+        <v>1.9</v>
+      </c>
       <c r="G38" s="23">
         <v>20</v>
       </c>
-      <c r="H38" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I38" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="7">
-        <v>20</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M38" s="7">
-        <v>25</v>
+      <c r="H38" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I38" s="37">
+        <v>0</v>
+      </c>
+      <c r="J38" s="38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="13">
+        <v>20</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R38" s="25"/>
       <c r="S38" s="30"/>
@@ -6134,45 +6311,41 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>988</v>
-      </c>
-      <c r="C39" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D39" s="26">
-        <v>172.3</v>
-      </c>
-      <c r="E39" s="26">
-        <v>2</v>
-      </c>
-      <c r="F39" s="26">
-        <v>2.13</v>
+      <c r="B39" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C39" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D39" s="13">
+        <v>62.7</v>
+      </c>
+      <c r="E39" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F39" s="13">
+        <v>2.0499999999999998</v>
       </c>
       <c r="G39" s="23">
-        <f t="shared" si="4"/>
-        <v>11.607661056297156</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I39" s="20">
-        <f t="shared" si="1"/>
-        <v>8.3923389437028444</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="K39" s="7">
-        <v>20</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M39" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H39" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I39" s="37">
+        <v>0</v>
+      </c>
+      <c r="J39" s="38">
+        <v>1</v>
+      </c>
+      <c r="K39" s="13">
+        <v>20</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R39" s="25"/>
       <c r="S39" s="30"/>
@@ -6187,45 +6360,41 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>989</v>
-      </c>
-      <c r="C40" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D40" s="26">
-        <v>200.7</v>
-      </c>
-      <c r="E40" s="26">
-        <v>1.86</v>
-      </c>
-      <c r="F40" s="26">
-        <v>2.15</v>
-      </c>
-      <c r="G40" s="23">
-        <f t="shared" si="4"/>
-        <v>9.9651220727453911</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I40" s="20">
-        <f t="shared" si="1"/>
-        <v>10.034877927254609</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="2"/>
-        <v>2.0070000000000001</v>
-      </c>
-      <c r="K40" s="7">
-        <v>20</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M40" s="7">
-        <v>25</v>
+      <c r="B40" s="13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C40" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D40" s="13">
+        <v>254.1</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G40" s="40">
+        <v>7.87</v>
+      </c>
+      <c r="H40" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I40" s="41">
+        <v>12.13</v>
+      </c>
+      <c r="J40" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="K40" s="13">
+        <v>20</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R40" s="25"/>
       <c r="S40" s="30"/>
@@ -6240,44 +6409,41 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>990</v>
-      </c>
-      <c r="C41" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D41" s="26">
-        <v>97.2</v>
-      </c>
-      <c r="E41" s="26">
+      <c r="B41" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C41" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D41" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E41" s="13">
         <v>1.96</v>
       </c>
-      <c r="F41" s="26">
-        <v>2.1800000000000002</v>
+      <c r="F41" s="13">
+        <v>2.2999999999999998</v>
       </c>
       <c r="G41" s="23">
         <v>20</v>
       </c>
-      <c r="H41" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I41" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K41" s="7">
-        <v>20</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M41" s="7">
-        <v>25</v>
+      <c r="H41" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+      <c r="J41" s="38">
+        <v>1</v>
+      </c>
+      <c r="K41" s="13">
+        <v>20</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R41" s="25"/>
       <c r="S41" s="30"/>
@@ -6292,44 +6458,41 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>991</v>
-      </c>
-      <c r="C42" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D42" s="26">
-        <v>87.5</v>
-      </c>
-      <c r="E42" s="26">
-        <v>1.81</v>
-      </c>
-      <c r="F42" s="26">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="G42" s="23">
-        <v>20</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I42" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K42" s="7">
-        <v>20</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M42" s="7">
-        <v>25</v>
+      <c r="B42" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C42" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D42" s="13">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="F42" s="13">
+        <v>2.27</v>
+      </c>
+      <c r="G42" s="40">
+        <v>12.45</v>
+      </c>
+      <c r="H42" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I42" s="41">
+        <v>7.55</v>
+      </c>
+      <c r="J42" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="K42" s="13">
+        <v>20</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R42" s="25"/>
       <c r="S42" s="30"/>
@@ -6344,45 +6507,41 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>992</v>
-      </c>
-      <c r="C43" s="25">
-        <v>43164</v>
-      </c>
-      <c r="D43" s="26">
-        <v>181.4</v>
-      </c>
-      <c r="E43" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="F43" s="26">
-        <v>2.21</v>
+      <c r="B43" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C43" s="12">
+        <v>43391</v>
+      </c>
+      <c r="D43" s="13">
+        <v>33.6</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2.09</v>
+      </c>
+      <c r="F43" s="13">
+        <v>2.09</v>
       </c>
       <c r="G43" s="23">
-        <f t="shared" si="4"/>
-        <v>11.025358324145534</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I43" s="20">
-        <f t="shared" si="1"/>
-        <v>8.9746416758544658</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="K43" s="7">
-        <v>20</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="M43" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H43" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="37">
+        <v>0</v>
+      </c>
+      <c r="J43" s="38">
+        <v>1</v>
+      </c>
+      <c r="K43" s="13">
+        <v>20</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R43" s="25"/>
       <c r="S43" s="30"/>
@@ -6401,7 +6560,7 @@
         <v>138</v>
       </c>
       <c r="C44" s="25">
-        <v>43164</v>
+        <v>43391</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -6410,7 +6569,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" ref="H44" si="5">100*20</f>
+        <f t="shared" ref="H44" si="0">100*20</f>
         <v>2000</v>
       </c>
       <c r="I44" s="20">
@@ -6426,8 +6585,8 @@
       <c r="L44" t="s">
         <v>950</v>
       </c>
-      <c r="M44" s="7">
-        <v>25</v>
+      <c r="M44" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="R44" s="25"/>
       <c r="S44" s="30"/>
@@ -6773,43 +6932,33 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="11" priority="47">
+    <cfRule type="expression" dxfId="13" priority="47">
       <formula>I44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Y32">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>V30&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30:AA32">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>AA30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>X76&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:V75">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>S34&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:X75">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>X34&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G43">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>D2&gt;100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I43">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>I2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
@@ -6831,8 +6980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A858" workbookViewId="0">
-      <selection activeCell="A882" sqref="A882"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49830,22 +49979,22 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F86:F109 F113:F119 F125:F1050">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>C86&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H1050">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>H86&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F85">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>C2&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H85">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>H2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49862,4 +50011,1805 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC958669-2BE3-2543-9949-E5995070D724}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B2" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C2">
+        <v>22.2</v>
+      </c>
+      <c r="D2">
+        <v>1.7</v>
+      </c>
+      <c r="E2">
+        <v>2.14</v>
+      </c>
+      <c r="F2" s="23">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4">
+        <f>100*20</f>
+        <v>2000</v>
+      </c>
+      <c r="H2" s="20">
+        <f>J2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <f>(J2/F2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>20</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B3" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C3">
+        <v>30.1</v>
+      </c>
+      <c r="D3">
+        <v>1.83</v>
+      </c>
+      <c r="E3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F3" s="23">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G43" si="0">100*20</f>
+        <v>2000</v>
+      </c>
+      <c r="H3" s="20">
+        <f t="shared" ref="H3:H43" si="1">J3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>(J3/F3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B4" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>1.89</v>
+      </c>
+      <c r="E4">
+        <v>2.12</v>
+      </c>
+      <c r="F4" s="23">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I3:I43" si="2">(J4/F4)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B5" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C5">
+        <v>23.4</v>
+      </c>
+      <c r="D5">
+        <v>1.74</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B6" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C6">
+        <v>106.8</v>
+      </c>
+      <c r="D6">
+        <v>1.92</v>
+      </c>
+      <c r="E6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F6" s="23">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B7" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C7">
+        <v>44.4</v>
+      </c>
+      <c r="D7">
+        <v>1.81</v>
+      </c>
+      <c r="E7">
+        <v>1.83</v>
+      </c>
+      <c r="F7" s="23">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B8" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C8">
+        <v>7.4</v>
+      </c>
+      <c r="D8">
+        <v>1.76</v>
+      </c>
+      <c r="E8">
+        <v>1.81</v>
+      </c>
+      <c r="F8" s="23">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B9" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C9">
+        <v>93.8</v>
+      </c>
+      <c r="D9">
+        <v>1.94</v>
+      </c>
+      <c r="E9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F9" s="23">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B10" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C10">
+        <v>15.7</v>
+      </c>
+      <c r="D10">
+        <v>1.77</v>
+      </c>
+      <c r="E10">
+        <v>1.98</v>
+      </c>
+      <c r="F10" s="23">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B11" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C11">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D11">
+        <v>1.98</v>
+      </c>
+      <c r="E11">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F11" s="23">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B12" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C12">
+        <v>53.8</v>
+      </c>
+      <c r="D12">
+        <v>1.96</v>
+      </c>
+      <c r="E12">
+        <v>2.1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B13" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C13">
+        <v>10.8</v>
+      </c>
+      <c r="D13">
+        <v>1.75</v>
+      </c>
+      <c r="E13">
+        <v>1.93</v>
+      </c>
+      <c r="F13" s="23">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B14" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D14">
+        <v>1.91</v>
+      </c>
+      <c r="E14">
+        <v>1.81</v>
+      </c>
+      <c r="F14" s="23">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B15" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C15">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D15">
+        <v>1.95</v>
+      </c>
+      <c r="E15">
+        <v>2.06</v>
+      </c>
+      <c r="F15" s="23">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B16" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C16">
+        <v>651.4</v>
+      </c>
+      <c r="D16">
+        <v>1.89</v>
+      </c>
+      <c r="E16">
+        <v>1.98</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" ref="F3:F43" si="3">G16/C16</f>
+        <v>3.0703101013202336</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="1"/>
+        <v>16.929689898679765</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="2"/>
+        <v>6.5139999999999993</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>1.83</v>
+      </c>
+      <c r="E17">
+        <v>1.85</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333321</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B18" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C18">
+        <v>95.6</v>
+      </c>
+      <c r="D18">
+        <v>1.77</v>
+      </c>
+      <c r="E18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F18" s="23">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B19" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C19">
+        <v>11.5</v>
+      </c>
+      <c r="D19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E19">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F19" s="23">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B20" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C20">
+        <v>46.2</v>
+      </c>
+      <c r="D20">
+        <v>1.63</v>
+      </c>
+      <c r="E20">
+        <v>0.76</v>
+      </c>
+      <c r="F20" s="23">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B21" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C21">
+        <v>29.1</v>
+      </c>
+      <c r="D21">
+        <v>1.83</v>
+      </c>
+      <c r="E21">
+        <v>1.52</v>
+      </c>
+      <c r="F21" s="23">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B22" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C22">
+        <v>91.6</v>
+      </c>
+      <c r="D22">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E22">
+        <v>2.17</v>
+      </c>
+      <c r="F22" s="23">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B23" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>1.99</v>
+      </c>
+      <c r="E23">
+        <v>2.13</v>
+      </c>
+      <c r="F23" s="23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B24" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C24">
+        <v>32.6</v>
+      </c>
+      <c r="D24">
+        <v>1.91</v>
+      </c>
+      <c r="E24">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F24" s="23">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B25" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C25">
+        <v>20.9</v>
+      </c>
+      <c r="D25">
+        <v>1.97</v>
+      </c>
+      <c r="E25">
+        <v>1.94</v>
+      </c>
+      <c r="F25" s="23">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B26" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>1.79</v>
+      </c>
+      <c r="E26">
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="23">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B27" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C27">
+        <v>42.5</v>
+      </c>
+      <c r="D27">
+        <v>2.02</v>
+      </c>
+      <c r="E27">
+        <v>1.85</v>
+      </c>
+      <c r="F27" s="23">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B28" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C28">
+        <v>96.8</v>
+      </c>
+      <c r="D28">
+        <v>1.93</v>
+      </c>
+      <c r="E28">
+        <v>2.12</v>
+      </c>
+      <c r="F28" s="23">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B29" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C29">
+        <v>24.2</v>
+      </c>
+      <c r="D29">
+        <v>1.94</v>
+      </c>
+      <c r="E29">
+        <v>1.63</v>
+      </c>
+      <c r="F29" s="23">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B30" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C30">
+        <v>238.5</v>
+      </c>
+      <c r="D30">
+        <v>1.96</v>
+      </c>
+      <c r="E30">
+        <v>2.19</v>
+      </c>
+      <c r="F30" s="23">
+        <f t="shared" si="3"/>
+        <v>8.3857442348008391</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>11.614255765199161</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B31" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D31">
+        <v>1.5</v>
+      </c>
+      <c r="E31">
+        <v>1.08</v>
+      </c>
+      <c r="F31" s="23">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B32" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C32">
+        <v>18.3</v>
+      </c>
+      <c r="D32">
+        <v>1.81</v>
+      </c>
+      <c r="E32">
+        <v>1.65</v>
+      </c>
+      <c r="F32" s="23">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B33" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C33">
+        <v>17.3</v>
+      </c>
+      <c r="D33">
+        <v>1.76</v>
+      </c>
+      <c r="E33">
+        <v>1.69</v>
+      </c>
+      <c r="F33" s="23">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B34" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C34">
+        <v>282.8</v>
+      </c>
+      <c r="D34">
+        <v>1.98</v>
+      </c>
+      <c r="E34">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="3"/>
+        <v>7.0721357850070721</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="1"/>
+        <v>12.927864214992928</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="2"/>
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B35" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C35">
+        <v>354</v>
+      </c>
+      <c r="D35">
+        <v>1.91</v>
+      </c>
+      <c r="E35">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="3"/>
+        <v>5.6497175141242941</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="1"/>
+        <v>14.350282485875706</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5399999999999996</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B36" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C36">
+        <v>205.7</v>
+      </c>
+      <c r="D36">
+        <v>1.98</v>
+      </c>
+      <c r="E36">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" si="3"/>
+        <v>9.7228974234321832</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="1"/>
+        <v>10.277102576567817</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B37" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C37">
+        <v>124.2</v>
+      </c>
+      <c r="D37">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E37">
+        <v>2.19</v>
+      </c>
+      <c r="F37" s="23">
+        <f t="shared" si="3"/>
+        <v>16.103059581320451</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="1"/>
+        <v>3.8969404186795487</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.242</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B38" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C38">
+        <v>15.6</v>
+      </c>
+      <c r="D38">
+        <v>1.91</v>
+      </c>
+      <c r="E38">
+        <v>1.9</v>
+      </c>
+      <c r="F38" s="23">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B39" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C39">
+        <v>62.7</v>
+      </c>
+      <c r="D39">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E39">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F39" s="23">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B40" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C40">
+        <v>254.1</v>
+      </c>
+      <c r="D40">
+        <v>1.94</v>
+      </c>
+      <c r="E40">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F40" s="23">
+        <f t="shared" si="3"/>
+        <v>7.8709169618260528</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="1"/>
+        <v>12.129083038173947</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="J40">
+        <v>20</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B41" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C41">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D41">
+        <v>1.96</v>
+      </c>
+      <c r="E41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F41" s="23">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B42" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C42">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1.98</v>
+      </c>
+      <c r="E42">
+        <v>2.27</v>
+      </c>
+      <c r="F42" s="23">
+        <f t="shared" si="3"/>
+        <v>12.445550715619166</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="1"/>
+        <v>7.5544492843808335</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="2"/>
+        <v>1.607</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B43" s="25">
+        <v>43391</v>
+      </c>
+      <c r="C43">
+        <v>33.6</v>
+      </c>
+      <c r="D43">
+        <v>2.09</v>
+      </c>
+      <c r="E43">
+        <v>2.09</v>
+      </c>
+      <c r="F43" s="23">
+        <v>20</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F43">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>C2&gt;100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>H2&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DNAdilutionTemplate.xlsx
+++ b/DNAdilutionTemplate.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD67F23-4728-984F-84CD-F291EC2EA601}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5FC73A-46FA-404E-9645-2E1151C462AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="21440" windowHeight="13360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="21440" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet to Print From" sheetId="1" r:id="rId1"/>
     <sheet name="All Dilutions" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="2017 Dilutions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'All Dilutions'!$A$1:$J$126</definedName>
@@ -42,7 +42,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -51,14 +51,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Diluting RNA to a concentration of 20 ng/u
-C1 V1=C2 V2
-((C1 V1)/C2)=V2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Diluting RNA to a concentration of 20 ng/u
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C1 V1=C2 V2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">((C1 V1)/C2)=V2
 </t>
         </r>
       </text>
@@ -69,7 +106,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -78,12 +115,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-final volume/RNA</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>final volume/RNA</t>
         </r>
       </text>
     </comment>
@@ -362,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1168">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -3734,6 +3780,138 @@
   </si>
   <si>
     <t>V2-1-17</t>
+  </si>
+  <si>
+    <t>T2-1-13</t>
+  </si>
+  <si>
+    <t>2-17</t>
+  </si>
+  <si>
+    <t>CC2-1-10</t>
+  </si>
+  <si>
+    <t>Y2-1-10</t>
+  </si>
+  <si>
+    <t>O2-1-4</t>
+  </si>
+  <si>
+    <t>BB2-1-16</t>
+  </si>
+  <si>
+    <t>B2-1-5</t>
+  </si>
+  <si>
+    <t>N2-1-10</t>
+  </si>
+  <si>
+    <t>X2-1-1</t>
+  </si>
+  <si>
+    <t>N2-1-25</t>
+  </si>
+  <si>
+    <t>H2-1-9</t>
+  </si>
+  <si>
+    <t>J2-1-13</t>
+  </si>
+  <si>
+    <t>I2-1-14</t>
+  </si>
+  <si>
+    <t>J2-1-8</t>
+  </si>
+  <si>
+    <t>X2-1-2</t>
+  </si>
+  <si>
+    <t>M2-1-2</t>
+  </si>
+  <si>
+    <t>S2-1-4</t>
+  </si>
+  <si>
+    <t>Y2-1-30</t>
+  </si>
+  <si>
+    <t>Y2-1-25</t>
+  </si>
+  <si>
+    <t>N2-1-5</t>
+  </si>
+  <si>
+    <t>C2-1-10</t>
+  </si>
+  <si>
+    <t>AA2-1-9</t>
+  </si>
+  <si>
+    <t>S2-1-10</t>
+  </si>
+  <si>
+    <t>K2-1-10</t>
+  </si>
+  <si>
+    <t>EL-22</t>
+  </si>
+  <si>
+    <t>F2-1-2</t>
+  </si>
+  <si>
+    <t>K2-1-16</t>
+  </si>
+  <si>
+    <t>AA2-1-10</t>
+  </si>
+  <si>
+    <t>U2-1-27</t>
+  </si>
+  <si>
+    <t>S2-1-8</t>
+  </si>
+  <si>
+    <t>CC2-1-12</t>
+  </si>
+  <si>
+    <t>T2-1-10</t>
+  </si>
+  <si>
+    <t>C2-1-9</t>
+  </si>
+  <si>
+    <t>S2-1-14</t>
+  </si>
+  <si>
+    <t>E2-1-29</t>
+  </si>
+  <si>
+    <t>S2-1-19</t>
+  </si>
+  <si>
+    <t>CC2-1-8</t>
+  </si>
+  <si>
+    <t>N2-1-17</t>
+  </si>
+  <si>
+    <t>O2-1-5</t>
+  </si>
+  <si>
+    <t>Y2-1-22</t>
+  </si>
+  <si>
+    <t>F2-1-11</t>
+  </si>
+  <si>
+    <t>BB2-1-7</t>
+  </si>
+  <si>
+    <t>D2-1-5</t>
+  </si>
+  <si>
+    <t>W2-1-26</t>
   </si>
 </sst>
 </file>
@@ -3821,17 +3999,20 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4620,8 +4801,8 @@
   </sheetPr>
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4685,40 +4866,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1080</v>
+        <v>1124</v>
       </c>
       <c r="C2" s="12">
         <v>43391</v>
       </c>
       <c r="D2" s="13">
-        <v>22.2</v>
+        <v>216.2</v>
       </c>
       <c r="E2" s="13">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="F2" s="13">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="G2" s="23">
-        <v>20</v>
-      </c>
-      <c r="H2" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="37">
-        <v>0</v>
-      </c>
-      <c r="J2" s="38">
-        <v>1</v>
-      </c>
-      <c r="K2" s="13">
-        <v>20</v>
-      </c>
-      <c r="L2" s="13" t="s">
+        <f t="shared" ref="G2:G39" si="0">H2/D2</f>
+        <v>9.250693802035153</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H45" si="1">100*20</f>
+        <v>2000</v>
+      </c>
+      <c r="I2" s="20">
+        <f t="shared" ref="I2:I39" si="2">K2-G2</f>
+        <v>10.749306197964847</v>
+      </c>
+      <c r="J2" s="6">
+        <f>(K2/G2)</f>
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M2" s="39" t="s">
-        <v>1082</v>
+      <c r="M2" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -4726,40 +4911,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1083</v>
+        <v>1126</v>
       </c>
       <c r="C3" s="12">
         <v>43391</v>
       </c>
       <c r="D3" s="13">
-        <v>30.1</v>
+        <v>147.9</v>
       </c>
       <c r="E3" s="13">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="F3" s="13">
-        <v>1.1399999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="G3" s="23">
-        <v>20</v>
-      </c>
-      <c r="H3" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0</v>
-      </c>
-      <c r="J3" s="38">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
-        <v>20</v>
-      </c>
-      <c r="L3" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>13.522650439486139</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I3" s="20">
+        <f t="shared" si="2"/>
+        <v>6.4773495605138613</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J2:J39" si="3">(K3/G3)</f>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M3" s="39" t="s">
-        <v>1082</v>
+      <c r="M3" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -4769,40 +4958,42 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1084</v>
+        <v>1127</v>
       </c>
       <c r="C4" s="12">
         <v>43391</v>
       </c>
       <c r="D4" s="13">
-        <v>47</v>
+        <v>23.3</v>
       </c>
       <c r="E4" s="13">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="F4" s="13">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="G4" s="23">
         <v>20</v>
       </c>
-      <c r="H4" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="37">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13">
-        <v>20</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M4" s="39" t="s">
-        <v>1082</v>
+      <c r="M4" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -4812,40 +5003,42 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1085</v>
+        <v>1128</v>
       </c>
       <c r="C5" s="12">
         <v>43391</v>
       </c>
       <c r="D5" s="13">
-        <v>23.4</v>
+        <v>6.5</v>
       </c>
       <c r="E5" s="13">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="F5" s="13">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="G5" s="23">
         <v>20</v>
       </c>
-      <c r="H5" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="37">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13">
-        <v>20</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>1082</v>
+      <c r="M5" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -4855,40 +5048,42 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1086</v>
+        <v>1129</v>
       </c>
       <c r="C6" s="12">
         <v>43391</v>
       </c>
       <c r="D6" s="13">
-        <v>106.8</v>
+        <v>20.9</v>
       </c>
       <c r="E6" s="13">
-        <v>1.92</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F6" s="13">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G6" s="40">
-        <v>20</v>
-      </c>
-      <c r="H6" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I6" s="37">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>1</v>
-      </c>
-      <c r="K6" s="13">
-        <v>20</v>
-      </c>
-      <c r="L6" s="13" t="s">
+        <v>2.14</v>
+      </c>
+      <c r="G6" s="23">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M6" s="39" t="s">
-        <v>1082</v>
+      <c r="M6" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -4898,40 +5093,44 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1087</v>
+        <v>1130</v>
       </c>
       <c r="C7" s="12">
         <v>43391</v>
       </c>
       <c r="D7" s="13">
-        <v>44.4</v>
+        <v>143.1</v>
       </c>
       <c r="E7" s="13">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="F7" s="13">
-        <v>1.83</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G7" s="23">
-        <v>20</v>
-      </c>
-      <c r="H7" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="37">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>20</v>
-      </c>
-      <c r="L7" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>13.976240391334732</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="2"/>
+        <v>6.0237596086652676</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="3"/>
+        <v>1.4309999999999998</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M7" s="39" t="s">
-        <v>1082</v>
+      <c r="M7" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -4941,40 +5140,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1088</v>
+        <v>1131</v>
       </c>
       <c r="C8" s="12">
         <v>43391</v>
       </c>
       <c r="D8" s="13">
-        <v>7.4</v>
+        <v>24.5</v>
       </c>
       <c r="E8" s="13">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="F8" s="13">
-        <v>1.81</v>
+        <v>2.19</v>
       </c>
       <c r="G8" s="23">
         <v>20</v>
       </c>
-      <c r="H8" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="37">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38">
-        <v>1</v>
-      </c>
-      <c r="K8" s="13">
-        <v>20</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>1082</v>
+      <c r="M8" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -4984,40 +5185,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1089</v>
+        <v>1132</v>
       </c>
       <c r="C9" s="12">
         <v>43391</v>
       </c>
       <c r="D9" s="13">
-        <v>93.8</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E9" s="13">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="F9" s="13">
-        <v>2.2400000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G9" s="23">
         <v>20</v>
       </c>
-      <c r="H9" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="37">
-        <v>0</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13">
-        <v>20</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M9" s="39" t="s">
-        <v>1082</v>
+      <c r="M9" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -5027,40 +5230,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1090</v>
+        <v>1133</v>
       </c>
       <c r="C10" s="12">
         <v>43391</v>
       </c>
       <c r="D10" s="13">
-        <v>15.7</v>
+        <v>35.5</v>
       </c>
       <c r="E10" s="13">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="F10" s="13">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="G10" s="23">
         <v>20</v>
       </c>
-      <c r="H10" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I10" s="37">
-        <v>0</v>
-      </c>
-      <c r="J10" s="38">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
-        <v>20</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M10" s="39" t="s">
-        <v>1082</v>
+      <c r="M10" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -5070,40 +5275,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1091</v>
+        <v>1134</v>
       </c>
       <c r="C11" s="12">
         <v>43391</v>
       </c>
       <c r="D11" s="13">
-        <v>33.700000000000003</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E11" s="13">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="F11" s="13">
-        <v>2.1800000000000002</v>
+        <v>1.85</v>
       </c>
       <c r="G11" s="23">
         <v>20</v>
       </c>
-      <c r="H11" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
-        <v>20</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M11" s="39" t="s">
-        <v>1082</v>
+      <c r="M11" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -5113,40 +5320,42 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1092</v>
+        <v>1135</v>
       </c>
       <c r="C12" s="12">
         <v>43391</v>
       </c>
       <c r="D12" s="13">
-        <v>53.8</v>
+        <v>95.1</v>
       </c>
       <c r="E12" s="13">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="F12" s="13">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="G12" s="23">
         <v>20</v>
       </c>
-      <c r="H12" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="37">
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
-        <v>1</v>
-      </c>
-      <c r="K12" s="13">
-        <v>20</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M12" s="39" t="s">
-        <v>1082</v>
+      <c r="M12" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -5156,40 +5365,42 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1093</v>
+        <v>1136</v>
       </c>
       <c r="C13" s="12">
         <v>43391</v>
       </c>
       <c r="D13" s="13">
-        <v>10.8</v>
+        <v>15.5</v>
       </c>
       <c r="E13" s="13">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="F13" s="13">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="G13" s="23">
         <v>20</v>
       </c>
-      <c r="H13" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="37">
-        <v>0</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="13">
-        <v>20</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M13" s="39" t="s">
-        <v>1082</v>
+      <c r="M13" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -5197,40 +5408,42 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1094</v>
+        <v>1137</v>
       </c>
       <c r="C14" s="12">
         <v>43391</v>
       </c>
       <c r="D14" s="13">
-        <v>9.3000000000000007</v>
+        <v>28</v>
       </c>
       <c r="E14" s="13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F14" s="13">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="G14" s="23">
         <v>20</v>
       </c>
-      <c r="H14" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="37">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13">
-        <v>20</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M14" s="39" t="s">
-        <v>1082</v>
+      <c r="M14" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -5238,40 +5451,42 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1095</v>
+        <v>1138</v>
       </c>
       <c r="C15" s="12">
         <v>43391</v>
       </c>
       <c r="D15" s="13">
-        <v>39.700000000000003</v>
+        <v>57.5</v>
       </c>
       <c r="E15" s="13">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="F15" s="13">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="G15" s="23">
         <v>20</v>
       </c>
-      <c r="H15" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13">
-        <v>20</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M15" s="39" t="s">
-        <v>1082</v>
+      <c r="M15" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -5279,40 +5494,42 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="C16" s="12">
         <v>43391</v>
       </c>
       <c r="D16" s="13">
-        <v>651.4</v>
+        <v>22.5</v>
       </c>
       <c r="E16" s="13">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="F16" s="13">
-        <v>1.98</v>
-      </c>
-      <c r="G16" s="40">
-        <v>3.07</v>
-      </c>
-      <c r="H16" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="41">
-        <v>16.93</v>
-      </c>
-      <c r="J16" s="38">
-        <v>6.5</v>
-      </c>
-      <c r="K16" s="13">
-        <v>20</v>
-      </c>
-      <c r="L16" s="13" t="s">
+        <v>1.24</v>
+      </c>
+      <c r="G16" s="23">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M16" s="39" t="s">
-        <v>1082</v>
+      <c r="M16" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -5320,40 +5537,42 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1097</v>
+        <v>1140</v>
       </c>
       <c r="C17" s="12">
         <v>43391</v>
       </c>
       <c r="D17" s="13">
-        <v>120</v>
+        <v>25.6</v>
       </c>
       <c r="E17" s="13">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="F17" s="13">
-        <v>1.85</v>
-      </c>
-      <c r="G17" s="40">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="H17" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="41">
-        <v>3.33</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1.2</v>
-      </c>
-      <c r="K17" s="13">
-        <v>20</v>
-      </c>
-      <c r="L17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="23">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M17" s="39" t="s">
-        <v>1082</v>
+      <c r="M17" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -5361,40 +5580,42 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1098</v>
+        <v>1141</v>
       </c>
       <c r="C18" s="12">
         <v>43391</v>
       </c>
       <c r="D18" s="13">
-        <v>95.6</v>
+        <v>31.4</v>
       </c>
       <c r="E18" s="13">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="F18" s="13">
-        <v>1.1299999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="G18" s="23">
         <v>20</v>
       </c>
-      <c r="H18" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0</v>
-      </c>
-      <c r="J18" s="38">
-        <v>1</v>
-      </c>
-      <c r="K18" s="13">
-        <v>20</v>
-      </c>
-      <c r="L18" s="13" t="s">
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M18" s="39" t="s">
-        <v>1082</v>
+      <c r="M18" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -5402,40 +5623,42 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1099</v>
+        <v>1142</v>
       </c>
       <c r="C19" s="12">
         <v>43391</v>
       </c>
       <c r="D19" s="13">
-        <v>11.5</v>
+        <v>29.5</v>
       </c>
       <c r="E19" s="13">
-        <v>2.2200000000000002</v>
+        <v>1.96</v>
       </c>
       <c r="F19" s="13">
-        <v>2.1800000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G19" s="23">
         <v>20</v>
       </c>
-      <c r="H19" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I19" s="37">
-        <v>0</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="13">
-        <v>20</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>1082</v>
+      <c r="M19" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -5443,40 +5666,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1100</v>
+        <v>1143</v>
       </c>
       <c r="C20" s="12">
         <v>43391</v>
       </c>
       <c r="D20" s="13">
-        <v>46.2</v>
+        <v>101.9</v>
       </c>
       <c r="E20" s="13">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="F20" s="13">
-        <v>0.76</v>
+        <v>2.02</v>
       </c>
       <c r="G20" s="23">
         <v>20</v>
       </c>
-      <c r="H20" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I20" s="37">
-        <v>0</v>
-      </c>
-      <c r="J20" s="38">
-        <v>1</v>
-      </c>
-      <c r="K20" s="13">
-        <v>20</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>1082</v>
+      <c r="M20" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -5484,40 +5710,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1101</v>
+        <v>1144</v>
       </c>
       <c r="C21" s="12">
         <v>43391</v>
       </c>
       <c r="D21" s="13">
-        <v>29.1</v>
+        <v>79.3</v>
       </c>
       <c r="E21" s="13">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="F21" s="13">
-        <v>1.52</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G21" s="23">
         <v>20</v>
       </c>
-      <c r="H21" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="37">
-        <v>0</v>
-      </c>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="13">
-        <v>20</v>
-      </c>
-      <c r="L21" s="13" t="s">
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>1082</v>
+      <c r="M21" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -5525,40 +5754,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1102</v>
+        <v>1145</v>
       </c>
       <c r="C22" s="12">
         <v>43391</v>
       </c>
       <c r="D22" s="13">
-        <v>91.6</v>
+        <v>61.3</v>
       </c>
       <c r="E22" s="13">
-        <v>2.0699999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="F22" s="13">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="G22" s="23">
         <v>20</v>
       </c>
-      <c r="H22" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I22" s="37">
-        <v>0</v>
-      </c>
-      <c r="J22" s="38">
-        <v>1</v>
-      </c>
-      <c r="K22" s="13">
-        <v>20</v>
-      </c>
-      <c r="L22" s="13" t="s">
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>1082</v>
+      <c r="M22" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -5566,40 +5798,43 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1103</v>
+        <v>1146</v>
       </c>
       <c r="C23" s="12">
         <v>43391</v>
       </c>
       <c r="D23" s="13">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E23" s="13">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="F23" s="13">
-        <v>2.13</v>
+        <v>1.62</v>
       </c>
       <c r="G23" s="23">
         <v>20</v>
       </c>
-      <c r="H23" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I23" s="37">
-        <v>0</v>
-      </c>
-      <c r="J23" s="38">
-        <v>1</v>
-      </c>
-      <c r="K23" s="13">
-        <v>20</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M23" s="39" t="s">
-        <v>1082</v>
+      <c r="M23" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -5607,40 +5842,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1104</v>
+        <v>1147</v>
       </c>
       <c r="C24" s="12">
         <v>43391</v>
       </c>
       <c r="D24" s="13">
-        <v>32.6</v>
+        <v>9.9</v>
       </c>
       <c r="E24" s="13">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="F24" s="13">
-        <v>2.2400000000000002</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G24" s="23">
         <v>20</v>
       </c>
-      <c r="H24" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I24" s="37">
-        <v>0</v>
-      </c>
-      <c r="J24" s="38">
-        <v>1</v>
-      </c>
-      <c r="K24" s="13">
-        <v>20</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="M24" s="39" t="s">
-        <v>1082</v>
+      <c r="M24" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -5648,40 +5886,44 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1105</v>
+        <v>1149</v>
       </c>
       <c r="C25" s="12">
         <v>43391</v>
       </c>
       <c r="D25" s="13">
-        <v>20.9</v>
+        <v>114.3</v>
       </c>
       <c r="E25" s="13">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="F25" s="13">
-        <v>1.94</v>
+        <v>2.11</v>
       </c>
       <c r="G25" s="23">
-        <v>20</v>
-      </c>
-      <c r="H25" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I25" s="37">
-        <v>0</v>
-      </c>
-      <c r="J25" s="38">
-        <v>1</v>
-      </c>
-      <c r="K25" s="13">
-        <v>20</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>1082</v>
+        <f t="shared" si="0"/>
+        <v>17.497812773403325</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5021872265966749</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="3"/>
+        <v>1.143</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -5689,40 +5931,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1106</v>
+        <v>1150</v>
       </c>
       <c r="C26" s="12">
         <v>43391</v>
       </c>
       <c r="D26" s="13">
-        <v>26</v>
+        <v>11.3</v>
       </c>
       <c r="E26" s="13">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="F26" s="13">
-        <v>1.8</v>
+        <v>1.23</v>
       </c>
       <c r="G26" s="23">
         <v>20</v>
       </c>
-      <c r="H26" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="J26" s="38">
-        <v>1</v>
-      </c>
-      <c r="K26" s="13">
-        <v>20</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>1082</v>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -5730,40 +5975,43 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1107</v>
+        <v>1151</v>
       </c>
       <c r="C27" s="12">
         <v>43391</v>
       </c>
       <c r="D27" s="13">
-        <v>42.5</v>
+        <v>4.5</v>
       </c>
       <c r="E27" s="13">
-        <v>2.02</v>
+        <v>1.25</v>
       </c>
       <c r="F27" s="13">
-        <v>1.85</v>
+        <v>0.63</v>
       </c>
       <c r="G27" s="23">
         <v>20</v>
       </c>
-      <c r="H27" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I27" s="37">
-        <v>0</v>
-      </c>
-      <c r="J27" s="38">
-        <v>1</v>
-      </c>
-      <c r="K27" s="13">
-        <v>20</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>1082</v>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -5771,40 +6019,43 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1108</v>
+        <v>1152</v>
       </c>
       <c r="C28" s="12">
         <v>43391</v>
       </c>
       <c r="D28" s="13">
-        <v>96.8</v>
+        <v>45.7</v>
       </c>
       <c r="E28" s="13">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="F28" s="13">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="G28" s="23">
         <v>20</v>
       </c>
-      <c r="H28" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I28" s="37">
-        <v>0</v>
-      </c>
-      <c r="J28" s="38">
-        <v>1</v>
-      </c>
-      <c r="K28" s="13">
-        <v>20</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>1082</v>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -5812,40 +6063,43 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1109</v>
+        <v>1153</v>
       </c>
       <c r="C29" s="12">
         <v>43391</v>
       </c>
       <c r="D29" s="13">
-        <v>24.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E29" s="13">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="F29" s="13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="G29" s="23">
         <v>20</v>
       </c>
-      <c r="H29" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I29" s="37">
-        <v>0</v>
-      </c>
-      <c r="J29" s="38">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13">
-        <v>20</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>1082</v>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="10"/>
@@ -5866,40 +6120,44 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1110</v>
+        <v>1154</v>
       </c>
       <c r="C30" s="12">
         <v>43391</v>
       </c>
       <c r="D30" s="13">
-        <v>238.5</v>
+        <v>132.9</v>
       </c>
       <c r="E30" s="13">
-        <v>1.96</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F30" s="13">
-        <v>2.19</v>
-      </c>
-      <c r="G30" s="40">
-        <v>8.39</v>
-      </c>
-      <c r="H30" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I30" s="41">
-        <v>11.61</v>
-      </c>
-      <c r="J30" s="38">
-        <v>2.4</v>
-      </c>
-      <c r="K30" s="13">
-        <v>20</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>1082</v>
+        <v>2.09</v>
+      </c>
+      <c r="G30" s="23">
+        <f t="shared" si="0"/>
+        <v>15.048908954100828</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I30" s="20">
+        <f t="shared" si="2"/>
+        <v>4.9510910458991724</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="3"/>
+        <v>1.329</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="U30" s="25"/>
       <c r="V30" s="30"/>
@@ -5915,40 +6173,44 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="C31" s="12">
         <v>43391</v>
       </c>
       <c r="D31" s="13">
+        <v>328.4</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.95</v>
+      </c>
+      <c r="F31" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E31" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="F31" s="13">
-        <v>1.08</v>
-      </c>
       <c r="G31" s="23">
-        <v>20</v>
-      </c>
-      <c r="H31" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I31" s="37">
-        <v>0</v>
-      </c>
-      <c r="J31" s="38">
-        <v>1</v>
-      </c>
-      <c r="K31" s="13">
-        <v>20</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>1082</v>
+        <f t="shared" si="0"/>
+        <v>6.0901339829476253</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I31" s="20">
+        <f t="shared" si="2"/>
+        <v>13.909866017052375</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="3"/>
+        <v>3.2839999999999998</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="30"/>
@@ -5964,40 +6226,44 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1112</v>
+        <v>1156</v>
       </c>
       <c r="C32" s="12">
         <v>43391</v>
       </c>
       <c r="D32" s="13">
-        <v>18.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="E32" s="13">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="F32" s="13">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="G32" s="23">
-        <v>20</v>
-      </c>
-      <c r="H32" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I32" s="37">
-        <v>0</v>
-      </c>
-      <c r="J32" s="38">
-        <v>1</v>
-      </c>
-      <c r="K32" s="13">
-        <v>20</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>1082</v>
+        <f t="shared" si="0"/>
+        <v>12.322858903265557</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I32" s="20">
+        <f t="shared" si="2"/>
+        <v>7.6771410967344433</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6230000000000002</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="U32" s="25"/>
       <c r="V32" s="30"/>
@@ -6013,40 +6279,43 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1113</v>
+        <v>1157</v>
       </c>
       <c r="C33" s="12">
         <v>43391</v>
       </c>
       <c r="D33" s="13">
-        <v>17.3</v>
+        <v>39.5</v>
       </c>
       <c r="E33" s="13">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="F33" s="13">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="G33" s="23">
         <v>20</v>
       </c>
-      <c r="H33" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I33" s="37">
-        <v>0</v>
-      </c>
-      <c r="J33" s="38">
-        <v>1</v>
-      </c>
-      <c r="K33" s="13">
-        <v>20</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>1082</v>
+      <c r="H33" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="10"/>
@@ -6067,40 +6336,43 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1114</v>
+        <v>1158</v>
       </c>
       <c r="C34" s="12">
         <v>43391</v>
       </c>
       <c r="D34" s="13">
-        <v>282.8</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E34" s="13">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="F34" s="13">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G34" s="40">
-        <v>7.07</v>
-      </c>
-      <c r="H34" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I34" s="41">
-        <v>12.93</v>
-      </c>
-      <c r="J34" s="38">
-        <v>2.8</v>
-      </c>
-      <c r="K34" s="13">
-        <v>20</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>1082</v>
+        <v>1.79</v>
+      </c>
+      <c r="G34" s="23">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="R34" s="25"/>
       <c r="S34" s="30"/>
@@ -6116,40 +6388,43 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1115</v>
+        <v>1159</v>
       </c>
       <c r="C35" s="12">
         <v>43391</v>
       </c>
       <c r="D35" s="13">
-        <v>354</v>
+        <v>28.6</v>
       </c>
       <c r="E35" s="13">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="F35" s="13">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G35" s="40">
-        <v>5.65</v>
-      </c>
-      <c r="H35" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I35" s="41">
-        <v>14.35</v>
-      </c>
-      <c r="J35" s="38">
-        <v>3.5</v>
-      </c>
-      <c r="K35" s="13">
-        <v>20</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>1082</v>
+        <v>1.61</v>
+      </c>
+      <c r="G35" s="23">
+        <v>20</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="R35" s="25"/>
       <c r="S35" s="30"/>
@@ -6165,40 +6440,44 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1116</v>
+        <v>1160</v>
       </c>
       <c r="C36" s="12">
         <v>43391</v>
       </c>
       <c r="D36" s="13">
-        <v>205.7</v>
+        <v>128.4</v>
       </c>
       <c r="E36" s="13">
-        <v>1.98</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F36" s="13">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G36" s="40">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="H36" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I36" s="41">
-        <v>10.28</v>
-      </c>
-      <c r="J36" s="38">
         <v>2.1</v>
       </c>
-      <c r="K36" s="13">
-        <v>20</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>1082</v>
+      <c r="G36" s="23">
+        <f>H36/D36</f>
+        <v>15.57632398753894</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I36" s="20">
+        <f t="shared" si="2"/>
+        <v>4.4236760124610601</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="3"/>
+        <v>1.284</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="R36" s="25"/>
       <c r="S36" s="30"/>
@@ -6214,40 +6493,43 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1117</v>
+        <v>1161</v>
       </c>
       <c r="C37" s="12">
         <v>43391</v>
       </c>
       <c r="D37" s="13">
-        <v>124.2</v>
+        <v>42.2</v>
       </c>
       <c r="E37" s="13">
-        <v>2.0299999999999998</v>
+        <v>1.88</v>
       </c>
       <c r="F37" s="13">
-        <v>2.19</v>
-      </c>
-      <c r="G37" s="40">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H37" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I37" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="J37" s="38">
-        <v>1.2</v>
-      </c>
-      <c r="K37" s="13">
-        <v>20</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>1082</v>
+        <v>1.94</v>
+      </c>
+      <c r="G37" s="23">
+        <v>20</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I37" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="R37" s="25"/>
       <c r="S37" s="30"/>
@@ -6263,40 +6545,43 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1118</v>
+        <v>1162</v>
       </c>
       <c r="C38" s="12">
         <v>43391</v>
       </c>
       <c r="D38" s="13">
-        <v>15.6</v>
+        <v>12.3</v>
       </c>
       <c r="E38" s="13">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="F38" s="13">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="G38" s="23">
         <v>20</v>
       </c>
-      <c r="H38" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I38" s="37">
-        <v>0</v>
-      </c>
-      <c r="J38" s="38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="13">
-        <v>20</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>1082</v>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I38" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="R38" s="25"/>
       <c r="S38" s="30"/>
@@ -6312,40 +6597,43 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1119</v>
+        <v>1163</v>
       </c>
       <c r="C39" s="12">
         <v>43391</v>
       </c>
       <c r="D39" s="13">
-        <v>62.7</v>
+        <v>21</v>
       </c>
       <c r="E39" s="13">
-        <v>2.0099999999999998</v>
+        <v>1.76</v>
       </c>
       <c r="F39" s="13">
-        <v>2.0499999999999998</v>
+        <v>1.49</v>
       </c>
       <c r="G39" s="23">
         <v>20</v>
       </c>
-      <c r="H39" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0</v>
-      </c>
-      <c r="J39" s="38">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13">
-        <v>20</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M39" s="39" t="s">
-        <v>1082</v>
+      <c r="H39" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I39" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>1125</v>
       </c>
       <c r="R39" s="25"/>
       <c r="S39" s="30"/>
@@ -6361,40 +6649,42 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1120</v>
+        <v>1164</v>
       </c>
       <c r="C40" s="12">
         <v>43391</v>
       </c>
       <c r="D40" s="13">
-        <v>254.1</v>
+        <v>57.8</v>
       </c>
       <c r="E40" s="13">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="F40" s="13">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G40" s="40">
-        <v>7.87</v>
-      </c>
-      <c r="H40" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I40" s="41">
-        <v>12.13</v>
-      </c>
-      <c r="J40" s="38">
-        <v>2.5</v>
+        <v>2.15</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>K39/G39</f>
+        <v>1</v>
       </c>
       <c r="K40" s="13">
         <v>20</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>1081</v>
+        <v>1148</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="R40" s="25"/>
       <c r="S40" s="30"/>
@@ -6410,40 +6700,42 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1121</v>
+        <v>1165</v>
       </c>
       <c r="C41" s="12">
         <v>43391</v>
       </c>
       <c r="D41" s="13">
-        <v>32.700000000000003</v>
+        <v>1.2</v>
       </c>
       <c r="E41" s="13">
-        <v>1.96</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F41" s="13">
-        <v>2.2999999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="G41" s="23">
         <v>20</v>
       </c>
-      <c r="H41" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-      <c r="J41" s="38">
+      <c r="H41" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <f>K40/G40</f>
         <v>1</v>
       </c>
       <c r="K41" s="13">
         <v>20</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>1081</v>
+        <v>1148</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="R41" s="25"/>
       <c r="S41" s="30"/>
@@ -6459,40 +6751,41 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>1122</v>
+        <v>1166</v>
       </c>
       <c r="C42" s="12">
         <v>43391</v>
       </c>
       <c r="D42" s="13">
-        <v>160.69999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="E42" s="13">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="F42" s="13">
-        <v>2.27</v>
-      </c>
-      <c r="G42" s="40">
-        <v>12.45</v>
-      </c>
-      <c r="H42" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I42" s="41">
-        <v>7.55</v>
-      </c>
-      <c r="J42" s="38">
-        <v>1.6</v>
+        <v>2.15</v>
+      </c>
+      <c r="G42" s="23">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>1</v>
       </c>
       <c r="K42" s="13">
         <v>20</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>1081</v>
+        <v>1148</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="R42" s="25"/>
       <c r="S42" s="30"/>
@@ -6508,40 +6801,41 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>1123</v>
+        <v>1167</v>
       </c>
       <c r="C43" s="12">
         <v>43391</v>
       </c>
       <c r="D43" s="13">
-        <v>33.6</v>
+        <v>52.4</v>
       </c>
       <c r="E43" s="13">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="F43" s="13">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="G43" s="23">
         <v>20</v>
       </c>
-      <c r="H43" s="36">
-        <v>2000</v>
-      </c>
-      <c r="I43" s="37">
-        <v>0</v>
-      </c>
-      <c r="J43" s="38">
+      <c r="H43" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
         <v>1</v>
       </c>
       <c r="K43" s="13">
         <v>20</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>1081</v>
+        <v>1148</v>
       </c>
       <c r="M43" s="39" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="R43" s="25"/>
       <c r="S43" s="30"/>
@@ -6559,34 +6853,33 @@
       <c r="B44" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="12">
         <v>43391</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44" s="5">
+      <c r="G44" s="23">
         <v>20</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" ref="H44" si="0">100*20</f>
-        <v>2000</v>
-      </c>
-      <c r="I44" s="20">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <f>(K44/G44)</f>
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>1</v>
       </c>
       <c r="K44" s="7">
         <v>20</v>
       </c>
-      <c r="L44" t="s">
-        <v>950</v>
+      <c r="L44" s="13" t="s">
+        <v>1081</v>
       </c>
       <c r="M44" s="39" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="R44" s="25"/>
       <c r="S44" s="30"/>
@@ -6602,7 +6895,7 @@
         <v>311</v>
       </c>
       <c r="G45" s="24"/>
-      <c r="H45"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="24"/>
       <c r="J45" s="6"/>
       <c r="R45" s="25"/>
@@ -6931,34 +7224,39 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="13" priority="47">
-      <formula>I44&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Y32">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>V30&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30:AA32">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>AA30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>X76&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:V75">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>S34&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:X75">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>X34&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G39 G41:G44">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2&gt;100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I39">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>I2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
@@ -6978,10 +7276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M1050"/>
+  <dimension ref="A1:M1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView topLeftCell="A986" workbookViewId="0">
+      <selection activeCell="A1094" sqref="A1094:H1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49976,25 +50274,2001 @@
         <v>25</v>
       </c>
     </row>
+    <row r="1052" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1052" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1052" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1052" s="13">
+        <v>22.2</v>
+      </c>
+      <c r="D1052" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="E1052" s="13">
+        <v>2.14</v>
+      </c>
+      <c r="F1052" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1052" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1052" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1052" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1052" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1052" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1052" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1053" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1053" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1053" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="D1053" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="E1053" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F1053" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1053" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1053" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1053" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1053" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1053" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1053" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1054" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1054" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1054" s="13">
+        <v>47</v>
+      </c>
+      <c r="D1054" s="13">
+        <v>1.89</v>
+      </c>
+      <c r="E1054" s="13">
+        <v>2.12</v>
+      </c>
+      <c r="F1054" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1054" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1054" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1054" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1054" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1054" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1054" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1055" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1055" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1055" s="13">
+        <v>23.4</v>
+      </c>
+      <c r="D1055" s="13">
+        <v>1.74</v>
+      </c>
+      <c r="E1055" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1055" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1055" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1055" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1055" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1055" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1055" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1056" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1056" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1056" s="13">
+        <v>106.8</v>
+      </c>
+      <c r="D1056" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="E1056" s="13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F1056" s="40">
+        <v>20</v>
+      </c>
+      <c r="G1056" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1056" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1056" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1056" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1056" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1056" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1057" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1057" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1057" s="13">
+        <v>44.4</v>
+      </c>
+      <c r="D1057" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="E1057" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="F1057" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1057" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1057" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1057" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1057" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1057" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1057" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1058" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1058" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1058" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="D1058" s="13">
+        <v>1.76</v>
+      </c>
+      <c r="E1058" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="F1058" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1058" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1058" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1058" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1058" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1058" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1058" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1059" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1059" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1059" s="13">
+        <v>93.8</v>
+      </c>
+      <c r="D1059" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="E1059" s="13">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F1059" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1059" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1059" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1059" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1059" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1059" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1059" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1060" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1060" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1060" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="D1060" s="13">
+        <v>1.77</v>
+      </c>
+      <c r="E1060" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="F1060" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1060" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1060" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1060" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1060" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1060" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1060" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1061" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1061" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1061" s="13">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D1061" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="E1061" s="13">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F1061" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1061" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1061" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1061" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1061" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1061" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1061" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1062" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1062" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1062" s="13">
+        <v>53.8</v>
+      </c>
+      <c r="D1062" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="E1062" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="F1062" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1062" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1062" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1062" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1062" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1062" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1062" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1063" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1063" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1063" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="D1063" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="E1063" s="13">
+        <v>1.93</v>
+      </c>
+      <c r="F1063" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1063" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1063" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1063" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1063" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1063" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1063" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1064" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1064" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1064" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1064" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="E1064" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="F1064" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1064" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1064" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1064" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1064" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1064" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1064" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1065" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1065" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1065" s="13">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D1065" s="13">
+        <v>1.95</v>
+      </c>
+      <c r="E1065" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="F1065" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1065" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1065" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1065" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1065" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1065" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1065" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1066" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1066" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1066" s="13">
+        <v>651.4</v>
+      </c>
+      <c r="D1066" s="13">
+        <v>1.89</v>
+      </c>
+      <c r="E1066" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="F1066" s="40">
+        <v>3.07</v>
+      </c>
+      <c r="G1066" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1066" s="41">
+        <v>16.93</v>
+      </c>
+      <c r="I1066" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="J1066" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1066" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1066" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1067" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1067" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1067" s="13">
+        <v>120</v>
+      </c>
+      <c r="D1067" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="E1067" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="F1067" s="40">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="G1067" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1067" s="41">
+        <v>3.33</v>
+      </c>
+      <c r="I1067" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="J1067" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1067" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1067" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1068" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1068" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1068" s="13">
+        <v>95.6</v>
+      </c>
+      <c r="D1068" s="13">
+        <v>1.77</v>
+      </c>
+      <c r="E1068" s="13">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F1068" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1068" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1068" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1068" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1068" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1068" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1068" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1069" s="13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1069" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1069" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="D1069" s="13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E1069" s="13">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F1069" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1069" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1069" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1069" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1069" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1069" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1069" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1070" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1070" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1070" s="13">
+        <v>46.2</v>
+      </c>
+      <c r="D1070" s="13">
+        <v>1.63</v>
+      </c>
+      <c r="E1070" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="F1070" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1070" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1070" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1070" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1070" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1070" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1070" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1071" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1071" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1071" s="13">
+        <v>29.1</v>
+      </c>
+      <c r="D1071" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="E1071" s="13">
+        <v>1.52</v>
+      </c>
+      <c r="F1071" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1071" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1071" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1071" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1071" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1071" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1071" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1072" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1072" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1072" s="13">
+        <v>91.6</v>
+      </c>
+      <c r="D1072" s="13">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E1072" s="13">
+        <v>2.17</v>
+      </c>
+      <c r="F1072" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1072" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1072" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1072" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1072" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1072" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1072" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1073" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1073" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1073" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1073" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="E1073" s="13">
+        <v>2.13</v>
+      </c>
+      <c r="F1073" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1073" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1073" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1073" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1073" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1073" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1073" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1074" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1074" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1074" s="13">
+        <v>32.6</v>
+      </c>
+      <c r="D1074" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="E1074" s="13">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F1074" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1074" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1074" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1074" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1074" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1074" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1074" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1075" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1075" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1075" s="13">
+        <v>20.9</v>
+      </c>
+      <c r="D1075" s="13">
+        <v>1.97</v>
+      </c>
+      <c r="E1075" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="F1075" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1075" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1075" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1075" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1075" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1075" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1075" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1076" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1076" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1076" s="13">
+        <v>26</v>
+      </c>
+      <c r="D1076" s="13">
+        <v>1.79</v>
+      </c>
+      <c r="E1076" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="F1076" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1076" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1076" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1076" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1076" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1076" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1076" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1077" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1077" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1077" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="D1077" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="E1077" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="F1077" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1077" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1077" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1077" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1077" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1077" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1077" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1078" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1078" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1078" s="13">
+        <v>96.8</v>
+      </c>
+      <c r="D1078" s="13">
+        <v>1.93</v>
+      </c>
+      <c r="E1078" s="13">
+        <v>2.12</v>
+      </c>
+      <c r="F1078" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1078" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1078" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1078" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1078" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1078" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1078" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1079" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1079" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1079" s="13">
+        <v>24.2</v>
+      </c>
+      <c r="D1079" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="E1079" s="13">
+        <v>1.63</v>
+      </c>
+      <c r="F1079" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1079" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1079" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1079" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1079" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1079" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1079" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1080" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1080" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1080" s="13">
+        <v>238.5</v>
+      </c>
+      <c r="D1080" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="E1080" s="13">
+        <v>2.19</v>
+      </c>
+      <c r="F1080" s="40">
+        <v>8.39</v>
+      </c>
+      <c r="G1080" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1080" s="41">
+        <v>11.61</v>
+      </c>
+      <c r="I1080" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="J1080" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1080" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1080" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1081" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1081" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1081" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1081" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E1081" s="13">
+        <v>1.08</v>
+      </c>
+      <c r="F1081" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1081" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1081" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1081" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1081" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1081" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1081" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1082" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1082" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1082" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="D1082" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="E1082" s="13">
+        <v>1.65</v>
+      </c>
+      <c r="F1082" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1082" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1082" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1082" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1082" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1082" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1082" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1083" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1083" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1083" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="D1083" s="13">
+        <v>1.76</v>
+      </c>
+      <c r="E1083" s="13">
+        <v>1.69</v>
+      </c>
+      <c r="F1083" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1083" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1083" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1083" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1083" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1083" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1083" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1084" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1084" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1084" s="13">
+        <v>282.8</v>
+      </c>
+      <c r="D1084" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="E1084" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F1084" s="40">
+        <v>7.07</v>
+      </c>
+      <c r="G1084" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1084" s="41">
+        <v>12.93</v>
+      </c>
+      <c r="I1084" s="38">
+        <v>2.8</v>
+      </c>
+      <c r="J1084" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1084" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1084" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1085" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1085" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1085" s="13">
+        <v>354</v>
+      </c>
+      <c r="D1085" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="E1085" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F1085" s="40">
+        <v>5.65</v>
+      </c>
+      <c r="G1085" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1085" s="41">
+        <v>14.35</v>
+      </c>
+      <c r="I1085" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="J1085" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1085" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1085" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1086" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1086" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1086" s="13">
+        <v>205.7</v>
+      </c>
+      <c r="D1086" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="E1086" s="13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F1086" s="40">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G1086" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1086" s="41">
+        <v>10.28</v>
+      </c>
+      <c r="I1086" s="38">
+        <v>2.1</v>
+      </c>
+      <c r="J1086" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1086" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1086" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1087" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1087" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1087" s="13">
+        <v>124.2</v>
+      </c>
+      <c r="D1087" s="13">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1087" s="13">
+        <v>2.19</v>
+      </c>
+      <c r="F1087" s="40">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G1087" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1087" s="41">
+        <v>3.9</v>
+      </c>
+      <c r="I1087" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="J1087" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1087" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1087" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1088" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1088" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1088" s="13">
+        <v>15.6</v>
+      </c>
+      <c r="D1088" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="E1088" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="F1088" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1088" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1088" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1088" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1088" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1088" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1088" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1089" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1089" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1089" s="13">
+        <v>62.7</v>
+      </c>
+      <c r="D1089" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E1089" s="13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F1089" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1089" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1089" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1089" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1089" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1089" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1089" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1090" s="13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1090" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1090" s="13">
+        <v>254.1</v>
+      </c>
+      <c r="D1090" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="E1090" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F1090" s="40">
+        <v>7.87</v>
+      </c>
+      <c r="G1090" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1090" s="41">
+        <v>12.13</v>
+      </c>
+      <c r="I1090" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="J1090" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1090" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1090" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1091" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1091" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1091" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D1091" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="E1091" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F1091" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1091" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1091" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1091" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1091" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1091" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1091" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1092" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1092" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1092" s="13">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="D1092" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="E1092" s="13">
+        <v>2.27</v>
+      </c>
+      <c r="F1092" s="40">
+        <v>12.45</v>
+      </c>
+      <c r="G1092" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1092" s="41">
+        <v>7.55</v>
+      </c>
+      <c r="I1092" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="J1092" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1092" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1092" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1093" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1093" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C1093" s="13">
+        <v>33.6</v>
+      </c>
+      <c r="D1093" s="13">
+        <v>2.09</v>
+      </c>
+      <c r="E1093" s="13">
+        <v>2.09</v>
+      </c>
+      <c r="F1093" s="23">
+        <v>20</v>
+      </c>
+      <c r="G1093" s="36">
+        <v>2000</v>
+      </c>
+      <c r="H1093" s="37">
+        <v>0</v>
+      </c>
+      <c r="I1093" s="38">
+        <v>1</v>
+      </c>
+      <c r="J1093" s="13">
+        <v>20</v>
+      </c>
+      <c r="K1093" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L1093" s="39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1094"/>
+      <c r="B1094"/>
+      <c r="C1094"/>
+      <c r="D1094"/>
+      <c r="E1094"/>
+      <c r="F1094"/>
+      <c r="G1094"/>
+      <c r="H1094"/>
+    </row>
+    <row r="1095" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1095"/>
+      <c r="B1095"/>
+      <c r="C1095"/>
+      <c r="D1095"/>
+      <c r="E1095"/>
+      <c r="F1095"/>
+      <c r="G1095"/>
+      <c r="H1095"/>
+    </row>
+    <row r="1096" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1096"/>
+      <c r="B1096"/>
+      <c r="C1096"/>
+      <c r="D1096"/>
+      <c r="E1096"/>
+      <c r="F1096"/>
+      <c r="G1096"/>
+      <c r="H1096"/>
+    </row>
+    <row r="1097" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1097"/>
+      <c r="B1097"/>
+      <c r="C1097"/>
+      <c r="D1097"/>
+      <c r="E1097"/>
+      <c r="F1097"/>
+      <c r="G1097"/>
+      <c r="H1097"/>
+    </row>
+    <row r="1098" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1098"/>
+      <c r="B1098"/>
+      <c r="C1098"/>
+      <c r="D1098"/>
+      <c r="E1098"/>
+      <c r="F1098"/>
+      <c r="G1098"/>
+      <c r="H1098"/>
+    </row>
+    <row r="1099" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1099"/>
+      <c r="B1099"/>
+      <c r="C1099"/>
+      <c r="D1099"/>
+      <c r="E1099"/>
+      <c r="F1099"/>
+      <c r="G1099"/>
+      <c r="H1099"/>
+    </row>
+    <row r="1100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1100"/>
+      <c r="B1100"/>
+      <c r="C1100"/>
+      <c r="D1100"/>
+      <c r="E1100"/>
+      <c r="F1100"/>
+      <c r="G1100"/>
+      <c r="H1100"/>
+    </row>
+    <row r="1101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1101"/>
+      <c r="B1101"/>
+      <c r="C1101"/>
+      <c r="D1101"/>
+      <c r="E1101"/>
+      <c r="F1101"/>
+      <c r="G1101"/>
+      <c r="H1101"/>
+    </row>
+    <row r="1102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1102"/>
+      <c r="B1102"/>
+      <c r="C1102"/>
+      <c r="D1102"/>
+      <c r="E1102"/>
+      <c r="F1102"/>
+      <c r="G1102"/>
+      <c r="H1102"/>
+    </row>
+    <row r="1103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1103"/>
+      <c r="B1103"/>
+      <c r="C1103"/>
+      <c r="D1103"/>
+      <c r="E1103"/>
+      <c r="F1103"/>
+      <c r="G1103"/>
+      <c r="H1103"/>
+    </row>
+    <row r="1104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1104"/>
+      <c r="B1104"/>
+      <c r="C1104"/>
+      <c r="D1104"/>
+      <c r="E1104"/>
+      <c r="F1104"/>
+      <c r="G1104"/>
+      <c r="H1104"/>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1105"/>
+      <c r="B1105"/>
+      <c r="C1105"/>
+      <c r="D1105"/>
+      <c r="E1105"/>
+      <c r="F1105"/>
+      <c r="G1105"/>
+      <c r="H1105"/>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1106"/>
+      <c r="B1106"/>
+      <c r="C1106"/>
+      <c r="D1106"/>
+      <c r="E1106"/>
+      <c r="F1106"/>
+      <c r="G1106"/>
+      <c r="H1106"/>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1107"/>
+      <c r="B1107"/>
+      <c r="C1107"/>
+      <c r="D1107"/>
+      <c r="E1107"/>
+      <c r="F1107"/>
+      <c r="G1107"/>
+      <c r="H1107"/>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1108"/>
+      <c r="B1108"/>
+      <c r="C1108"/>
+      <c r="D1108"/>
+      <c r="E1108"/>
+      <c r="F1108"/>
+      <c r="G1108"/>
+      <c r="H1108"/>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1109"/>
+      <c r="B1109"/>
+      <c r="C1109"/>
+      <c r="D1109"/>
+      <c r="E1109"/>
+      <c r="F1109"/>
+      <c r="G1109"/>
+      <c r="H1109"/>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1110"/>
+      <c r="B1110"/>
+      <c r="C1110"/>
+      <c r="D1110"/>
+      <c r="E1110"/>
+      <c r="F1110"/>
+      <c r="G1110"/>
+      <c r="H1110"/>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1111"/>
+      <c r="B1111"/>
+      <c r="C1111"/>
+      <c r="D1111"/>
+      <c r="E1111"/>
+      <c r="F1111"/>
+      <c r="G1111"/>
+      <c r="H1111"/>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1112"/>
+      <c r="B1112"/>
+      <c r="C1112"/>
+      <c r="D1112"/>
+      <c r="E1112"/>
+      <c r="F1112"/>
+      <c r="G1112"/>
+      <c r="H1112"/>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1113"/>
+      <c r="B1113"/>
+      <c r="C1113"/>
+      <c r="D1113"/>
+      <c r="E1113"/>
+      <c r="F1113"/>
+      <c r="G1113"/>
+      <c r="H1113"/>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1114"/>
+      <c r="B1114"/>
+      <c r="C1114"/>
+      <c r="D1114"/>
+      <c r="E1114"/>
+      <c r="F1114"/>
+      <c r="G1114"/>
+      <c r="H1114"/>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1115"/>
+      <c r="B1115"/>
+      <c r="C1115"/>
+      <c r="D1115"/>
+      <c r="E1115"/>
+      <c r="F1115"/>
+      <c r="G1115"/>
+      <c r="H1115"/>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1116"/>
+      <c r="B1116"/>
+      <c r="C1116"/>
+      <c r="D1116"/>
+      <c r="E1116"/>
+      <c r="F1116"/>
+      <c r="G1116"/>
+      <c r="H1116"/>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1117"/>
+      <c r="B1117"/>
+      <c r="C1117"/>
+      <c r="D1117"/>
+      <c r="E1117"/>
+      <c r="F1117"/>
+      <c r="G1117"/>
+      <c r="H1117"/>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1118"/>
+      <c r="B1118"/>
+      <c r="C1118"/>
+      <c r="D1118"/>
+      <c r="E1118"/>
+      <c r="F1118"/>
+      <c r="G1118"/>
+      <c r="H1118"/>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1119"/>
+      <c r="B1119"/>
+      <c r="C1119"/>
+      <c r="D1119"/>
+      <c r="E1119"/>
+      <c r="F1119"/>
+      <c r="G1119"/>
+      <c r="H1119"/>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1120"/>
+      <c r="B1120"/>
+      <c r="C1120"/>
+      <c r="D1120"/>
+      <c r="E1120"/>
+      <c r="F1120"/>
+      <c r="G1120"/>
+      <c r="H1120"/>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1121"/>
+      <c r="B1121"/>
+      <c r="C1121"/>
+      <c r="D1121"/>
+      <c r="E1121"/>
+      <c r="F1121"/>
+      <c r="G1121"/>
+      <c r="H1121"/>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1122"/>
+      <c r="B1122"/>
+      <c r="C1122"/>
+      <c r="D1122"/>
+      <c r="E1122"/>
+      <c r="F1122"/>
+      <c r="G1122"/>
+      <c r="H1122"/>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1123"/>
+      <c r="B1123"/>
+      <c r="C1123"/>
+      <c r="D1123"/>
+      <c r="E1123"/>
+      <c r="F1123"/>
+      <c r="G1123"/>
+      <c r="H1123"/>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1124"/>
+      <c r="B1124"/>
+      <c r="C1124"/>
+      <c r="D1124"/>
+      <c r="E1124"/>
+      <c r="F1124"/>
+      <c r="G1124"/>
+      <c r="H1124"/>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1125"/>
+      <c r="B1125"/>
+      <c r="C1125"/>
+      <c r="D1125"/>
+      <c r="E1125"/>
+      <c r="F1125"/>
+      <c r="G1125"/>
+      <c r="H1125"/>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1126"/>
+      <c r="B1126"/>
+      <c r="C1126"/>
+      <c r="D1126"/>
+      <c r="E1126"/>
+      <c r="F1126"/>
+      <c r="G1126"/>
+      <c r="H1126"/>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1127"/>
+      <c r="B1127"/>
+      <c r="C1127"/>
+      <c r="D1127"/>
+      <c r="E1127"/>
+      <c r="F1127"/>
+      <c r="G1127"/>
+      <c r="H1127"/>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1128"/>
+      <c r="B1128"/>
+      <c r="C1128"/>
+      <c r="D1128"/>
+      <c r="E1128"/>
+      <c r="F1128"/>
+      <c r="G1128"/>
+      <c r="H1128"/>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1129"/>
+      <c r="B1129"/>
+      <c r="C1129"/>
+      <c r="D1129"/>
+      <c r="E1129"/>
+      <c r="F1129"/>
+      <c r="G1129"/>
+      <c r="H1129"/>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1130"/>
+      <c r="B1130"/>
+      <c r="C1130"/>
+      <c r="D1130"/>
+      <c r="E1130"/>
+      <c r="F1130"/>
+      <c r="G1130"/>
+      <c r="H1130"/>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1131"/>
+      <c r="B1131"/>
+      <c r="C1131"/>
+      <c r="D1131"/>
+      <c r="E1131"/>
+      <c r="F1131"/>
+      <c r="G1131"/>
+      <c r="H1131"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F86:F109 F113:F119 F125:F1050">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>C86&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H1050">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>H86&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F85">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>C2&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H85">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>H2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50015,10 +52289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC958669-2BE3-2543-9949-E5995070D724}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50125,11 +52399,11 @@
         <v>20</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G43" si="0">100*20</f>
+        <f t="shared" ref="G3:G66" si="0">100*20</f>
         <v>2000</v>
       </c>
       <c r="H3" s="20">
-        <f t="shared" ref="H3:H43" si="1">J3-F3</f>
+        <f t="shared" ref="H3:H66" si="1">J3-F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
@@ -50174,7 +52448,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I3:I43" si="2">(J4/F4)</f>
+        <f t="shared" ref="I4:I67" si="2">(J4/F4)</f>
         <v>1</v>
       </c>
       <c r="J4">
@@ -50656,7 +52930,7 @@
         <v>1.98</v>
       </c>
       <c r="F16" s="23">
-        <f t="shared" ref="F3:F43" si="3">G16/C16</f>
+        <f t="shared" ref="F16:F79" si="3">G16/C16</f>
         <v>3.0703101013202336</v>
       </c>
       <c r="G16" s="4">
@@ -51781,7 +54055,6 @@
         <v>2000</v>
       </c>
       <c r="H43" s="20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="6">
@@ -51798,14 +54071,1649 @@
         <v>1082</v>
       </c>
     </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B44" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C44" s="13">
+        <v>216.2</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2.29</v>
+      </c>
+      <c r="F44" s="23">
+        <f t="shared" si="3"/>
+        <v>9.250693802035153</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="1"/>
+        <v>10.749306197964847</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B45" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C45" s="13">
+        <v>147.9</v>
+      </c>
+      <c r="D45" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="E45" s="13">
+        <v>2.29</v>
+      </c>
+      <c r="F45" s="23">
+        <f t="shared" si="3"/>
+        <v>13.522650439486139</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="1"/>
+        <v>6.4773495605138613</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B46" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C46" s="13">
+        <v>23.3</v>
+      </c>
+      <c r="D46" s="13">
+        <v>2.15</v>
+      </c>
+      <c r="E46" s="13">
+        <v>2.09</v>
+      </c>
+      <c r="F46" s="23">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H46" s="20">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B47" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C47" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1.68</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="F47" s="23">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B48" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C48" s="13">
+        <v>20.9</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2.14</v>
+      </c>
+      <c r="F48" s="23">
+        <v>20</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B49" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C49" s="13">
+        <v>143.1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F49" s="23">
+        <f t="shared" si="3"/>
+        <v>13.976240391334732</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="1"/>
+        <v>6.0237596086652676</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4309999999999998</v>
+      </c>
+      <c r="J49">
+        <v>20</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B50" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C50" s="13">
+        <v>24.5</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="E50" s="13">
+        <v>2.19</v>
+      </c>
+      <c r="F50" s="23">
+        <v>20</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B51" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C51" s="13">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="E51" s="13">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F51" s="23">
+        <v>20</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H51" s="20">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B52" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C52" s="13">
+        <v>35.5</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="E52" s="13">
+        <v>2.13</v>
+      </c>
+      <c r="F52" s="23">
+        <v>20</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H52" s="20">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B53" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C53" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1.69</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="F53" s="23">
+        <v>20</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H53" s="20">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>20</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B54" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C54" s="13">
+        <v>95.1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1.93</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2.19</v>
+      </c>
+      <c r="F54" s="23">
+        <v>20</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H54" s="20">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B55" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C55" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="E55" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="F55" s="23">
+        <v>20</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H55" s="20">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B56" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C56" s="13">
+        <v>28</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="E56" s="13">
+        <v>2.16</v>
+      </c>
+      <c r="F56" s="23">
+        <v>20</v>
+      </c>
+      <c r="G56" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H56" s="20">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B57" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C57" s="13">
+        <v>57.5</v>
+      </c>
+      <c r="D57" s="13">
+        <v>2.08</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="F57" s="23">
+        <v>20</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H57" s="20">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B58" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C58" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1.73</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1.24</v>
+      </c>
+      <c r="F58" s="23">
+        <v>20</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H58" s="20">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B59" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C59" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1.86</v>
+      </c>
+      <c r="E59" s="13">
+        <v>2</v>
+      </c>
+      <c r="F59" s="23">
+        <v>20</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H59" s="20">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B60" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C60" s="13">
+        <v>31.4</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="E60" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="F60" s="23">
+        <v>20</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H60" s="20">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B61" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C61" s="13">
+        <v>29.5</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="E61" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F61" s="23">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H61" s="20">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B62" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C62" s="13">
+        <v>101.9</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="E62" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="F62" s="23">
+        <v>20</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H62" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>20</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B63" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C63" s="13">
+        <v>79.3</v>
+      </c>
+      <c r="D63" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="E63" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F63" s="23">
+        <v>20</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B64" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C64" s="13">
+        <v>61.3</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1.89</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1.93</v>
+      </c>
+      <c r="F64" s="23">
+        <v>20</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H64" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>20</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B65" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C65" s="13">
+        <v>26</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1.86</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1.62</v>
+      </c>
+      <c r="F65" s="23">
+        <v>20</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H65" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>20</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B66" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C66" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="D66" s="13">
+        <v>1.72</v>
+      </c>
+      <c r="E66" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F66" s="23">
+        <v>20</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H66" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>20</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B67" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C67" s="13">
+        <v>114.3</v>
+      </c>
+      <c r="D67" s="13">
+        <v>2</v>
+      </c>
+      <c r="E67" s="13">
+        <v>2.11</v>
+      </c>
+      <c r="F67" s="23">
+        <f t="shared" si="3"/>
+        <v>17.497812773403325</v>
+      </c>
+      <c r="G67" s="4">
+        <f t="shared" ref="G67:G85" si="4">100*20</f>
+        <v>2000</v>
+      </c>
+      <c r="H67" s="20">
+        <f t="shared" ref="H67:H81" si="5">J67-F67</f>
+        <v>2.5021872265966749</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="2"/>
+        <v>1.143</v>
+      </c>
+      <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B68" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C68" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="D68" s="13">
+        <v>1.69</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1.23</v>
+      </c>
+      <c r="F68" s="23">
+        <v>20</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H68" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" ref="I68:I81" si="6">(J68/F68)</f>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B69" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C69" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="D69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="F69" s="23">
+        <v>20</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B70" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C70" s="13">
+        <v>45.7</v>
+      </c>
+      <c r="D70" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="F70" s="23">
+        <v>20</v>
+      </c>
+      <c r="G70" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H70" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B71" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C71" s="13">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D71" s="13">
+        <v>2.08</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1.78</v>
+      </c>
+      <c r="F71" s="23">
+        <v>20</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H71" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B72" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C72" s="13">
+        <v>132.9</v>
+      </c>
+      <c r="D72" s="13">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E72" s="13">
+        <v>2.09</v>
+      </c>
+      <c r="F72" s="23">
+        <f t="shared" si="3"/>
+        <v>15.048908954100828</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H72" s="20">
+        <f t="shared" si="5"/>
+        <v>4.9510910458991724</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="6"/>
+        <v>1.329</v>
+      </c>
+      <c r="J72">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B73" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C73" s="13">
+        <v>328.4</v>
+      </c>
+      <c r="D73" s="13">
+        <v>1.95</v>
+      </c>
+      <c r="E73" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F73" s="23">
+        <f t="shared" si="3"/>
+        <v>6.0901339829476253</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H73" s="20">
+        <f t="shared" si="5"/>
+        <v>13.909866017052375</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="6"/>
+        <v>3.2839999999999998</v>
+      </c>
+      <c r="J73">
+        <v>20</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B74" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C74" s="13">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="D74" s="13">
+        <v>1.93</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2.12</v>
+      </c>
+      <c r="F74" s="23">
+        <f t="shared" si="3"/>
+        <v>12.322858903265557</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H74" s="20">
+        <f t="shared" si="5"/>
+        <v>7.6771410967344433</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="6"/>
+        <v>1.6230000000000002</v>
+      </c>
+      <c r="J74">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B75" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C75" s="13">
+        <v>39.5</v>
+      </c>
+      <c r="D75" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1.77</v>
+      </c>
+      <c r="F75" s="23">
+        <v>20</v>
+      </c>
+      <c r="G75" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H75" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B76" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C76" s="13">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1.79</v>
+      </c>
+      <c r="F76" s="23">
+        <v>20</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H76" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B77" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C77" s="13">
+        <v>28.6</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1.61</v>
+      </c>
+      <c r="F77" s="23">
+        <v>20</v>
+      </c>
+      <c r="G77" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H77" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B78" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C78" s="13">
+        <v>128.4</v>
+      </c>
+      <c r="D78" s="13">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E78" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="F78" s="23">
+        <f t="shared" si="3"/>
+        <v>15.57632398753894</v>
+      </c>
+      <c r="G78" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H78" s="20">
+        <f t="shared" si="5"/>
+        <v>4.4236760124610601</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" si="6"/>
+        <v>1.284</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B79" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C79" s="13">
+        <v>42.2</v>
+      </c>
+      <c r="D79" s="13">
+        <v>1.88</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="F79" s="23">
+        <v>20</v>
+      </c>
+      <c r="G79" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H79" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B80" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C80" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="D80" s="13">
+        <v>1.74</v>
+      </c>
+      <c r="E80" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F80" s="23">
+        <v>20</v>
+      </c>
+      <c r="G80" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>20</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B81" s="12">
+        <v>43391</v>
+      </c>
+      <c r="C81" s="13">
+        <v>21</v>
+      </c>
+      <c r="D81" s="13">
+        <v>1.76</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1.49</v>
+      </c>
+      <c r="F81" s="23">
+        <v>20</v>
+      </c>
+      <c r="G81" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>20</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B82" s="12">
+        <v>43391</v>
+      </c>
+      <c r="G82" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="J82">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B83" s="12">
+        <v>43391</v>
+      </c>
+      <c r="G83" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="J83">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B84" s="12">
+        <v>43391</v>
+      </c>
+      <c r="G84" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="J84">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B85" s="12">
+        <v>43391</v>
+      </c>
+      <c r="G85" s="4">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="J85">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F43">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="F2:F81">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>C2&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H43">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="H2:H81">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>H2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DNAdilutionTemplate.xlsx
+++ b/DNAdilutionTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B680F-CC83-F547-A159-3BEF035A85A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0443A3-DE10-0540-A12B-6D971441B71F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="21440" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="460" windowWidth="19680" windowHeight="14440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet to Print From" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -408,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="1526">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -4578,6 +4583,414 @@
   </si>
   <si>
     <t>7-17</t>
+  </si>
+  <si>
+    <t>X2-1-14</t>
+  </si>
+  <si>
+    <t>I2-1-17</t>
+  </si>
+  <si>
+    <t>K2-1-11</t>
+  </si>
+  <si>
+    <t>A2-1-12</t>
+  </si>
+  <si>
+    <t>CC2-1-11</t>
+  </si>
+  <si>
+    <t>T2-1-15</t>
+  </si>
+  <si>
+    <t>F2-1-9</t>
+  </si>
+  <si>
+    <t>C2-1-7</t>
+  </si>
+  <si>
+    <t>CC2-1-22</t>
+  </si>
+  <si>
+    <t>U2-1-16</t>
+  </si>
+  <si>
+    <t>AA2-1-18</t>
+  </si>
+  <si>
+    <t>P2-1-3</t>
+  </si>
+  <si>
+    <t>C2-1-17</t>
+  </si>
+  <si>
+    <t>CC2-1-24</t>
+  </si>
+  <si>
+    <t>J2-1-6</t>
+  </si>
+  <si>
+    <t>Q2-1-21</t>
+  </si>
+  <si>
+    <t>T2-1-2</t>
+  </si>
+  <si>
+    <t>C2-1-5</t>
+  </si>
+  <si>
+    <t>X2-1-28</t>
+  </si>
+  <si>
+    <t>I2-1-3</t>
+  </si>
+  <si>
+    <t>K2-1-9</t>
+  </si>
+  <si>
+    <t>S2-1-15</t>
+  </si>
+  <si>
+    <t>S2-1-11</t>
+  </si>
+  <si>
+    <t>V2-1-22</t>
+  </si>
+  <si>
+    <t>W2-1-9</t>
+  </si>
+  <si>
+    <t>CC2-1-30</t>
+  </si>
+  <si>
+    <t>Q2-1-11</t>
+  </si>
+  <si>
+    <t>E2-1-19</t>
+  </si>
+  <si>
+    <t>Y2-1-26</t>
+  </si>
+  <si>
+    <t>G2-1-7</t>
+  </si>
+  <si>
+    <t>G2-1-3</t>
+  </si>
+  <si>
+    <t>U2-1-12</t>
+  </si>
+  <si>
+    <t>N2-1-28</t>
+  </si>
+  <si>
+    <t>V2-1-3</t>
+  </si>
+  <si>
+    <t>X2-1-29</t>
+  </si>
+  <si>
+    <t>U2-1-22</t>
+  </si>
+  <si>
+    <t>G2-1-6</t>
+  </si>
+  <si>
+    <t>I2-1-29</t>
+  </si>
+  <si>
+    <t>U2-1-13</t>
+  </si>
+  <si>
+    <t>N2-1-15</t>
+  </si>
+  <si>
+    <t>I2-1-22</t>
+  </si>
+  <si>
+    <t>E2-1-20</t>
+  </si>
+  <si>
+    <t>X2-1-20</t>
+  </si>
+  <si>
+    <t>I2-1-23</t>
+  </si>
+  <si>
+    <t>BB2-1-4</t>
+  </si>
+  <si>
+    <t>X2-1-6</t>
+  </si>
+  <si>
+    <t>Q2-1-12</t>
+  </si>
+  <si>
+    <t>E2-1-11</t>
+  </si>
+  <si>
+    <t>V2-1-20</t>
+  </si>
+  <si>
+    <t>J2-1-17</t>
+  </si>
+  <si>
+    <t>X2-1-4</t>
+  </si>
+  <si>
+    <t>B2-1-8</t>
+  </si>
+  <si>
+    <t>D2-1-6</t>
+  </si>
+  <si>
+    <t>CC2-1-5</t>
+  </si>
+  <si>
+    <t>D2-1-1</t>
+  </si>
+  <si>
+    <t>L2-1-2</t>
+  </si>
+  <si>
+    <t>T2-1-5</t>
+  </si>
+  <si>
+    <t>AA2-1-6</t>
+  </si>
+  <si>
+    <t>I2-1-15</t>
+  </si>
+  <si>
+    <t>E2-1-24</t>
+  </si>
+  <si>
+    <t>E2-1-6</t>
+  </si>
+  <si>
+    <t>N2-1-20</t>
+  </si>
+  <si>
+    <t>E2-1-25</t>
+  </si>
+  <si>
+    <t>B2-1-10</t>
+  </si>
+  <si>
+    <t>X2-1-30</t>
+  </si>
+  <si>
+    <t>BB2-1-5</t>
+  </si>
+  <si>
+    <t>V2-1-2</t>
+  </si>
+  <si>
+    <t>I2-1-8</t>
+  </si>
+  <si>
+    <t>CC2-1-17</t>
+  </si>
+  <si>
+    <t>K2-1-14</t>
+  </si>
+  <si>
+    <t>W2-1-30</t>
+  </si>
+  <si>
+    <t>N2-1-22</t>
+  </si>
+  <si>
+    <t>V2-1-9</t>
+  </si>
+  <si>
+    <t>X2-1-18</t>
+  </si>
+  <si>
+    <t>O2-1-13</t>
+  </si>
+  <si>
+    <t>AA2-1-20</t>
+  </si>
+  <si>
+    <t>A2-1-6</t>
+  </si>
+  <si>
+    <t>V2-1-1</t>
+  </si>
+  <si>
+    <t>AA2-1-4</t>
+  </si>
+  <si>
+    <t>H2-1-1</t>
+  </si>
+  <si>
+    <t>O2-1-12</t>
+  </si>
+  <si>
+    <t>S2-1-13</t>
+  </si>
+  <si>
+    <t>N2-1-4</t>
+  </si>
+  <si>
+    <t>Y2-1-9</t>
+  </si>
+  <si>
+    <t>I2-1-34</t>
+  </si>
+  <si>
+    <t>W2-1-11</t>
+  </si>
+  <si>
+    <t>B2-1-6</t>
+  </si>
+  <si>
+    <t>I2-1-11</t>
+  </si>
+  <si>
+    <t>O2-1-7</t>
+  </si>
+  <si>
+    <t>CC2-1-4</t>
+  </si>
+  <si>
+    <t>Y2-1-19</t>
+  </si>
+  <si>
+    <t>V2-1-10</t>
+  </si>
+  <si>
+    <t>F2-1-8</t>
+  </si>
+  <si>
+    <t>AA2-1-12</t>
+  </si>
+  <si>
+    <t>Q2-1-28</t>
+  </si>
+  <si>
+    <t>Y2-1-33</t>
+  </si>
+  <si>
+    <t>U2-1-23</t>
+  </si>
+  <si>
+    <t>I2-1-9</t>
+  </si>
+  <si>
+    <t>K2-1-5</t>
+  </si>
+  <si>
+    <t>E2-1-14</t>
+  </si>
+  <si>
+    <t>O2-1-1</t>
+  </si>
+  <si>
+    <t>E2-1-13</t>
+  </si>
+  <si>
+    <t>AA2-1-17</t>
+  </si>
+  <si>
+    <t>CC2-1-32</t>
+  </si>
+  <si>
+    <t>V2-1-23</t>
+  </si>
+  <si>
+    <t>J2-1-2</t>
+  </si>
+  <si>
+    <t>W2-1-12</t>
+  </si>
+  <si>
+    <t>J2-1-21</t>
+  </si>
+  <si>
+    <t>R2-1-5</t>
+  </si>
+  <si>
+    <t>H2-1-11</t>
+  </si>
+  <si>
+    <t>I2-1-30</t>
+  </si>
+  <si>
+    <t>I2-1-21</t>
+  </si>
+  <si>
+    <t>Y2-1-16</t>
+  </si>
+  <si>
+    <t>C2-1-22</t>
+  </si>
+  <si>
+    <t>E2-1-2</t>
+  </si>
+  <si>
+    <t>I2-1-20</t>
+  </si>
+  <si>
+    <t>W2-1-5</t>
+  </si>
+  <si>
+    <t>CC2-1-26</t>
+  </si>
+  <si>
+    <t>J2-1-18</t>
+  </si>
+  <si>
+    <t>G2-1-5</t>
+  </si>
+  <si>
+    <t>A2-1-7</t>
+  </si>
+  <si>
+    <t>Q2-1-33</t>
+  </si>
+  <si>
+    <t>P2-1-9</t>
+  </si>
+  <si>
+    <t>L2-1-4</t>
+  </si>
+  <si>
+    <t>AA2-1-19</t>
+  </si>
+  <si>
+    <t>C2-1-12</t>
+  </si>
+  <si>
+    <t>BB2-1-13</t>
+  </si>
+  <si>
+    <t>Q2-1-6</t>
+  </si>
+  <si>
+    <t>S2-1-17</t>
+  </si>
+  <si>
+    <t>N2-1-23</t>
+  </si>
+  <si>
+    <t>V2-1-8</t>
+  </si>
+  <si>
+    <t>EL-25</t>
+  </si>
+  <si>
+    <t>EL-26</t>
+  </si>
+  <si>
+    <t>8-17</t>
+  </si>
+  <si>
+    <t>9-17</t>
+  </si>
+  <si>
+    <t>10-17</t>
   </si>
 </sst>
 </file>
@@ -4713,7 +5126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4754,6 +5167,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4842,7 +5261,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4935,6 +5354,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="74">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -5012,177 +5436,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5673,7 +5927,7 @@
   </sheetPr>
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -5756,7 +6010,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="G2:H43" si="0">100*20</f>
+        <f t="shared" ref="H2:H43" si="0">100*20</f>
         <v>2000</v>
       </c>
       <c r="I2" s="20">
@@ -6028,7 +6282,7 @@
         <v>2.14</v>
       </c>
       <c r="G8" s="23">
-        <f t="shared" ref="G8:G43" si="3">H8/D8</f>
+        <f t="shared" ref="G8" si="3">H8/D8</f>
         <v>6.1709348966368403</v>
       </c>
       <c r="H8" s="4">
@@ -6304,7 +6558,7 @@
         <v>2.29</v>
       </c>
       <c r="G14" s="23">
-        <f t="shared" ref="G14:G43" si="4">H14/D14</f>
+        <f t="shared" ref="G14" si="4">H14/D14</f>
         <v>10.172939979654121</v>
       </c>
       <c r="H14" s="4">
@@ -6530,7 +6784,7 @@
         <v>2.29</v>
       </c>
       <c r="G19" s="23">
-        <f t="shared" ref="G19:G43" si="5">H19/D19</f>
+        <f t="shared" ref="G19" si="5">H19/D19</f>
         <v>2.783964365256125</v>
       </c>
       <c r="H19" s="4">
@@ -7256,7 +7510,7 @@
         <v>2.27</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" ref="G34:G43" si="6">H34/D34</f>
+        <f t="shared" ref="G34" si="6">H34/D34</f>
         <v>10.288065843621398</v>
       </c>
       <c r="H34" s="4">
@@ -8148,47 +8402,47 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="Y30:Y32">
-    <cfRule type="expression" dxfId="31" priority="42">
+    <cfRule type="expression" dxfId="14" priority="42">
       <formula>V30&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30:AA32">
-    <cfRule type="expression" dxfId="30" priority="41">
+    <cfRule type="expression" dxfId="13" priority="41">
       <formula>AA30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76">
-    <cfRule type="expression" dxfId="29" priority="37">
+    <cfRule type="expression" dxfId="12" priority="37">
       <formula>X76&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:V75">
-    <cfRule type="expression" dxfId="28" priority="36">
+    <cfRule type="expression" dxfId="11" priority="36">
       <formula>S34&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:X75">
-    <cfRule type="expression" dxfId="27" priority="35">
+    <cfRule type="expression" dxfId="10" priority="35">
       <formula>X34&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="9" priority="24">
       <formula>D44&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>I44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G43">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I43">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>I2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8211,7 +8465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1131"/>
   <sheetViews>
-    <sheetView topLeftCell="A1029" workbookViewId="0">
+    <sheetView topLeftCell="A1033" workbookViewId="0">
       <selection activeCell="B1056" sqref="B1056"/>
     </sheetView>
   </sheetViews>
@@ -52178,22 +52432,22 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F86:F109 F113:F119 F125:F1050">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>C86&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H1050">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>H86&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F85">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>C2&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H85">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>H2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52214,10 +52468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC958669-2BE3-2543-9949-E5995070D724}">
-  <dimension ref="A1:L298"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="L364" sqref="L364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52855,7 +53109,7 @@
         <v>1.98</v>
       </c>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:F78" si="3">G16/C16</f>
+        <f>G16/C16</f>
         <v>3.0703101013202336</v>
       </c>
       <c r="G16" s="4">
@@ -52897,7 +53151,7 @@
         <v>1.85</v>
       </c>
       <c r="F17" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F17:F78" si="3">G17/C17</f>
         <v>16.666666666666668</v>
       </c>
       <c r="G17" s="4">
@@ -61686,7 +61940,7 @@
         <v>2.39</v>
       </c>
       <c r="F232" s="23">
-        <f t="shared" ref="F232:F295" si="15">G232/C232</f>
+        <f t="shared" ref="F232:F274" si="15">G232/C232</f>
         <v>16.286644951140065</v>
       </c>
       <c r="G232" s="4">
@@ -62766,7 +63020,7 @@
         <v>0</v>
       </c>
       <c r="I258" s="6">
-        <f t="shared" ref="I258:I298" si="16">(J258/F258)</f>
+        <f t="shared" ref="I258:I321" si="16">(J258/F258)</f>
         <v>1</v>
       </c>
       <c r="J258">
@@ -62799,7 +63053,7 @@
         <v>20</v>
       </c>
       <c r="G259" s="4">
-        <f t="shared" ref="G259:G298" si="17">100*20</f>
+        <f t="shared" ref="G259:G322" si="17">100*20</f>
         <v>2000</v>
       </c>
       <c r="H259" s="20">
@@ -62844,7 +63098,7 @@
         <v>2000</v>
       </c>
       <c r="H260" s="20">
-        <f t="shared" ref="H260:H298" si="18">J260-F260</f>
+        <f t="shared" ref="H260:H288" si="18">J260-F260</f>
         <v>0</v>
       </c>
       <c r="I260" s="6">
@@ -64029,7 +64283,7 @@
         <v>2.27</v>
       </c>
       <c r="F289" s="23">
-        <f t="shared" si="15"/>
+        <f>G289/C289</f>
         <v>10.288065843621398</v>
       </c>
       <c r="G289" s="4">
@@ -64037,7 +64291,7 @@
         <v>2000</v>
       </c>
       <c r="H289" s="20">
-        <f t="shared" si="18"/>
+        <f>J289-F289</f>
         <v>9.7119341563786019</v>
       </c>
       <c r="I289" s="6">
@@ -64078,7 +64332,7 @@
         <v>2000</v>
       </c>
       <c r="H290" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H290:H353" si="19">J290-F290</f>
         <v>0</v>
       </c>
       <c r="I290" s="6">
@@ -64119,7 +64373,7 @@
         <v>2000</v>
       </c>
       <c r="H291" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I291" s="6">
@@ -64160,7 +64414,7 @@
         <v>2000</v>
       </c>
       <c r="H292" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I292" s="6">
@@ -64201,7 +64455,7 @@
         <v>2000</v>
       </c>
       <c r="H293" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I293" s="6">
@@ -64242,7 +64496,7 @@
         <v>2000</v>
       </c>
       <c r="H294" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I294" s="6">
@@ -64283,7 +64537,7 @@
         <v>2000</v>
       </c>
       <c r="H295" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I295" s="6">
@@ -64324,7 +64578,7 @@
         <v>2000</v>
       </c>
       <c r="H296" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I296" s="6">
@@ -64365,7 +64619,7 @@
         <v>2000</v>
       </c>
       <c r="H297" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I297" s="6">
@@ -64406,7 +64660,7 @@
         <v>2000</v>
       </c>
       <c r="H298" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I298" s="6">
@@ -64423,14 +64677,5023 @@
         <v>1389</v>
       </c>
     </row>
+    <row r="299" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="18" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C299" s="18">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D299" s="18">
+        <v>1.98</v>
+      </c>
+      <c r="E299" s="18">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F299" s="23">
+        <v>20</v>
+      </c>
+      <c r="G299" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H299" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I299" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>20</v>
+      </c>
+      <c r="K299" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L299" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="18" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C300" s="18">
+        <v>72</v>
+      </c>
+      <c r="D300" s="18">
+        <v>2</v>
+      </c>
+      <c r="E300" s="18">
+        <v>2.21</v>
+      </c>
+      <c r="F300" s="23">
+        <v>20</v>
+      </c>
+      <c r="G300" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H300" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I300" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>20</v>
+      </c>
+      <c r="K300" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L300" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="18" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C301" s="18">
+        <v>12.6</v>
+      </c>
+      <c r="D301" s="18">
+        <v>1.66</v>
+      </c>
+      <c r="E301" s="18">
+        <v>1.59</v>
+      </c>
+      <c r="F301" s="23">
+        <v>20</v>
+      </c>
+      <c r="G301" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H301" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I301" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>20</v>
+      </c>
+      <c r="K301" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L301" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="18" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C302" s="18">
+        <v>23.7</v>
+      </c>
+      <c r="D302" s="18">
+        <v>1.91</v>
+      </c>
+      <c r="E302" s="18">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F302" s="23">
+        <v>20</v>
+      </c>
+      <c r="G302" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H302" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I302" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>20</v>
+      </c>
+      <c r="K302" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L302" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="18" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C303" s="18">
+        <v>99</v>
+      </c>
+      <c r="D303" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="E303" s="18">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F303" s="23">
+        <v>20</v>
+      </c>
+      <c r="G303" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H303" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I303" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>20</v>
+      </c>
+      <c r="K303" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L303" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="18" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C304" s="18">
+        <v>265</v>
+      </c>
+      <c r="D304" s="18">
+        <v>1.84</v>
+      </c>
+      <c r="E304" s="18">
+        <v>1.33</v>
+      </c>
+      <c r="F304" s="23">
+        <f t="shared" ref="F304:F352" si="20">G304/C304</f>
+        <v>7.5471698113207548</v>
+      </c>
+      <c r="G304" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H304" s="20">
+        <f t="shared" si="19"/>
+        <v>12.452830188679245</v>
+      </c>
+      <c r="I304" s="6">
+        <f t="shared" si="16"/>
+        <v>2.65</v>
+      </c>
+      <c r="J304">
+        <v>20</v>
+      </c>
+      <c r="K304" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L304" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="18" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C305" s="18">
+        <v>25.7</v>
+      </c>
+      <c r="D305" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="E305" s="18">
+        <v>2.14</v>
+      </c>
+      <c r="F305" s="23">
+        <v>20</v>
+      </c>
+      <c r="G305" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H305" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I305" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>20</v>
+      </c>
+      <c r="K305" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L305" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="18" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C306" s="18">
+        <v>3</v>
+      </c>
+      <c r="D306" s="18">
+        <v>1.34</v>
+      </c>
+      <c r="E306" s="18">
+        <v>0.73</v>
+      </c>
+      <c r="F306" s="23">
+        <v>20</v>
+      </c>
+      <c r="G306" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H306" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I306" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>20</v>
+      </c>
+      <c r="K306" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L306" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="18" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C307" s="18">
+        <v>170.3</v>
+      </c>
+      <c r="D307" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="E307" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="F307" s="23">
+        <f t="shared" si="20"/>
+        <v>11.743981209630064</v>
+      </c>
+      <c r="G307" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H307" s="20">
+        <f t="shared" si="19"/>
+        <v>8.2560187903699358</v>
+      </c>
+      <c r="I307" s="6">
+        <f t="shared" si="16"/>
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="J307">
+        <v>20</v>
+      </c>
+      <c r="K307" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L307" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A308" s="18" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C308" s="18">
+        <v>29.2</v>
+      </c>
+      <c r="D308" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="E308" s="18">
+        <v>2.13</v>
+      </c>
+      <c r="F308" s="23">
+        <v>20</v>
+      </c>
+      <c r="G308" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H308" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I308" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>20</v>
+      </c>
+      <c r="K308" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L308" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A309" s="18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C309" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="D309" s="18">
+        <v>1.53</v>
+      </c>
+      <c r="E309" s="18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F309" s="23">
+        <v>20</v>
+      </c>
+      <c r="G309" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H309" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I309" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>20</v>
+      </c>
+      <c r="K309" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L309" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="18" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C310" s="18">
+        <v>250.7</v>
+      </c>
+      <c r="D310" s="18">
+        <v>1.93</v>
+      </c>
+      <c r="E310" s="18">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F310" s="23">
+        <f t="shared" si="20"/>
+        <v>7.9776625448743523</v>
+      </c>
+      <c r="G310" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H310" s="20">
+        <f t="shared" si="19"/>
+        <v>12.022337455125648</v>
+      </c>
+      <c r="I310" s="6">
+        <f t="shared" si="16"/>
+        <v>2.5069999999999997</v>
+      </c>
+      <c r="J310">
+        <v>20</v>
+      </c>
+      <c r="K310" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L310" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C311" s="18">
+        <v>49.9</v>
+      </c>
+      <c r="D311" s="18">
+        <v>1.91</v>
+      </c>
+      <c r="E311" s="18">
+        <v>1.76</v>
+      </c>
+      <c r="F311" s="23">
+        <v>20</v>
+      </c>
+      <c r="G311" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H311" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I311" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>20</v>
+      </c>
+      <c r="K311" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L311" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="18" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C312" s="18">
+        <v>11</v>
+      </c>
+      <c r="D312" s="18">
+        <v>1.85</v>
+      </c>
+      <c r="E312" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="F312" s="23">
+        <v>20</v>
+      </c>
+      <c r="G312" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H312" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I312" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>20</v>
+      </c>
+      <c r="K312" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L312" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A313" s="18" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C313" s="18">
+        <v>47</v>
+      </c>
+      <c r="D313" s="18">
+        <v>1.85</v>
+      </c>
+      <c r="E313" s="18">
+        <v>1.71</v>
+      </c>
+      <c r="F313" s="23">
+        <v>20</v>
+      </c>
+      <c r="G313" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H313" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I313" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>20</v>
+      </c>
+      <c r="K313" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L313" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" s="18" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C314" s="18">
+        <v>54.1</v>
+      </c>
+      <c r="D314" s="18">
+        <v>1.92</v>
+      </c>
+      <c r="E314" s="18">
+        <v>1.51</v>
+      </c>
+      <c r="F314" s="23">
+        <v>20</v>
+      </c>
+      <c r="G314" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H314" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I314" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>20</v>
+      </c>
+      <c r="K314" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L314" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="18" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C315" s="18">
+        <v>185.1</v>
+      </c>
+      <c r="D315" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="E315" s="18">
+        <v>2.17</v>
+      </c>
+      <c r="F315" s="23">
+        <f t="shared" si="20"/>
+        <v>10.804970286331713</v>
+      </c>
+      <c r="G315" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H315" s="20">
+        <f t="shared" si="19"/>
+        <v>9.195029713668287</v>
+      </c>
+      <c r="I315" s="6">
+        <f t="shared" si="16"/>
+        <v>1.851</v>
+      </c>
+      <c r="J315">
+        <v>20</v>
+      </c>
+      <c r="K315" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L315" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C316" s="18">
+        <v>31.4</v>
+      </c>
+      <c r="D316" s="18">
+        <v>1.95</v>
+      </c>
+      <c r="E316" s="18">
+        <v>2.16</v>
+      </c>
+      <c r="F316" s="23">
+        <v>20</v>
+      </c>
+      <c r="G316" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H316" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I316" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J316">
+        <v>20</v>
+      </c>
+      <c r="K316" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L316" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="50" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B317" s="51"/>
+      <c r="C317" s="50">
+        <v>-0.4</v>
+      </c>
+      <c r="D317" s="50">
+        <v>1.95</v>
+      </c>
+      <c r="E317" s="50">
+        <v>1.82</v>
+      </c>
+      <c r="F317" s="23">
+        <v>20</v>
+      </c>
+      <c r="G317" s="52">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H317" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I317" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>20</v>
+      </c>
+      <c r="K317" s="50" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L317" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="18" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C318" s="22">
+        <v>38.4</v>
+      </c>
+      <c r="D318" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="E318" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F318" s="23">
+        <v>20</v>
+      </c>
+      <c r="G318" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H318" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I318" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J318">
+        <v>20</v>
+      </c>
+      <c r="K318" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L318" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A319" s="18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C319" s="22">
+        <v>41.7</v>
+      </c>
+      <c r="D319" s="22">
+        <v>1.87</v>
+      </c>
+      <c r="E319" s="22">
+        <v>2.23</v>
+      </c>
+      <c r="F319" s="23">
+        <v>20</v>
+      </c>
+      <c r="G319" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H319" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I319" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>20</v>
+      </c>
+      <c r="K319" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L319" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A320" s="18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C320" s="22">
+        <v>60.5</v>
+      </c>
+      <c r="D320" s="22">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E320" s="22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F320" s="23">
+        <v>20</v>
+      </c>
+      <c r="G320" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H320" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I320" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>20</v>
+      </c>
+      <c r="K320" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L320" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="18" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C321" s="22">
+        <v>14.7</v>
+      </c>
+      <c r="D321" s="22">
+        <v>2.04</v>
+      </c>
+      <c r="E321" s="22">
+        <v>1.68</v>
+      </c>
+      <c r="F321" s="23">
+        <v>20</v>
+      </c>
+      <c r="G321" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H321" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I321" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>20</v>
+      </c>
+      <c r="K321" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L321" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A322" s="18" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C322" s="22">
+        <v>23.8</v>
+      </c>
+      <c r="D322" s="22">
+        <v>2.11</v>
+      </c>
+      <c r="E322" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="F322" s="23">
+        <v>20</v>
+      </c>
+      <c r="G322" s="4">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="H322" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I322" s="6">
+        <f t="shared" ref="I322:I385" si="21">(J322/F322)</f>
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>20</v>
+      </c>
+      <c r="K322" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L322" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="18" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C323" s="22">
+        <v>25.9</v>
+      </c>
+      <c r="D323" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="E323" s="22">
+        <v>2.11</v>
+      </c>
+      <c r="F323" s="23">
+        <v>20</v>
+      </c>
+      <c r="G323" s="4">
+        <f t="shared" ref="G323:G386" si="22">100*20</f>
+        <v>2000</v>
+      </c>
+      <c r="H323" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I323" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>20</v>
+      </c>
+      <c r="K323" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L323" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="18" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C324" s="22">
+        <v>7.4</v>
+      </c>
+      <c r="D324" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="E324" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="F324" s="23">
+        <v>20</v>
+      </c>
+      <c r="G324" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H324" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I324" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>20</v>
+      </c>
+      <c r="K324" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L324" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="18" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C325" s="22">
+        <v>357.6</v>
+      </c>
+      <c r="D325" s="22">
+        <v>2.06</v>
+      </c>
+      <c r="E325" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F325" s="23">
+        <f t="shared" si="20"/>
+        <v>5.592841163310962</v>
+      </c>
+      <c r="G325" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H325" s="20">
+        <f t="shared" si="19"/>
+        <v>14.407158836689039</v>
+      </c>
+      <c r="I325" s="6">
+        <f t="shared" si="21"/>
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="J325">
+        <v>20</v>
+      </c>
+      <c r="K325" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L325" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="18" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C326" s="22">
+        <v>47.4</v>
+      </c>
+      <c r="D326" s="22">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E326" s="22">
+        <v>2.04</v>
+      </c>
+      <c r="F326" s="23">
+        <v>20</v>
+      </c>
+      <c r="G326" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H326" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I326" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>20</v>
+      </c>
+      <c r="K326" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L326" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="18" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C327" s="22">
+        <v>12</v>
+      </c>
+      <c r="D327" s="22">
+        <v>1.92</v>
+      </c>
+      <c r="E327" s="22">
+        <v>2.04</v>
+      </c>
+      <c r="F327" s="23">
+        <v>20</v>
+      </c>
+      <c r="G327" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H327" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I327" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>20</v>
+      </c>
+      <c r="K327" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L327" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="18" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C328" s="22">
+        <v>18.8</v>
+      </c>
+      <c r="D328" s="22">
+        <v>1.96</v>
+      </c>
+      <c r="E328" s="22">
+        <v>2.11</v>
+      </c>
+      <c r="F328" s="23">
+        <v>20</v>
+      </c>
+      <c r="G328" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H328" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I328" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>20</v>
+      </c>
+      <c r="K328" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L328" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C329" s="22">
+        <v>10.1</v>
+      </c>
+      <c r="D329" s="22">
+        <v>2.04</v>
+      </c>
+      <c r="E329" s="22">
+        <v>2.14</v>
+      </c>
+      <c r="F329" s="23">
+        <v>20</v>
+      </c>
+      <c r="G329" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H329" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I329" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>20</v>
+      </c>
+      <c r="K329" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L329" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="18" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C330" s="22">
+        <v>61.6</v>
+      </c>
+      <c r="D330" s="22">
+        <v>2.04</v>
+      </c>
+      <c r="E330" s="22">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F330" s="23">
+        <v>20</v>
+      </c>
+      <c r="G330" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H330" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I330" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>20</v>
+      </c>
+      <c r="K330" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L330" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="18" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C331" s="22">
+        <v>212.6</v>
+      </c>
+      <c r="D331" s="22">
+        <v>1.88</v>
+      </c>
+      <c r="E331" s="22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F331" s="23">
+        <f t="shared" si="20"/>
+        <v>9.4073377234242717</v>
+      </c>
+      <c r="G331" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H331" s="20">
+        <f t="shared" si="19"/>
+        <v>10.592662276575728</v>
+      </c>
+      <c r="I331" s="6">
+        <f t="shared" si="21"/>
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="J331">
+        <v>20</v>
+      </c>
+      <c r="K331" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L331" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="18" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C332" s="22">
+        <v>16.3</v>
+      </c>
+      <c r="D332" s="22">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E332" s="22">
+        <v>1.93</v>
+      </c>
+      <c r="F332" s="23">
+        <v>20</v>
+      </c>
+      <c r="G332" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H332" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I332" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>20</v>
+      </c>
+      <c r="K332" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L332" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="18" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C333" s="22">
+        <v>721.5</v>
+      </c>
+      <c r="D333" s="22">
+        <v>2</v>
+      </c>
+      <c r="E333" s="22">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F333" s="23">
+        <f t="shared" si="20"/>
+        <v>2.772002772002772</v>
+      </c>
+      <c r="G333" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H333" s="20">
+        <f t="shared" si="19"/>
+        <v>17.227997227997228</v>
+      </c>
+      <c r="I333" s="6">
+        <f t="shared" si="21"/>
+        <v>7.2149999999999999</v>
+      </c>
+      <c r="J333">
+        <v>20</v>
+      </c>
+      <c r="K333" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L333" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A334" s="18" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C334" s="22">
+        <v>44</v>
+      </c>
+      <c r="D334" s="22">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E334" s="22">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F334" s="23">
+        <v>20</v>
+      </c>
+      <c r="G334" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H334" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I334" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>20</v>
+      </c>
+      <c r="K334" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L334" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="18" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C335" s="22">
+        <v>21</v>
+      </c>
+      <c r="D335" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="E335" s="22">
+        <v>1.97</v>
+      </c>
+      <c r="F335" s="23">
+        <v>20</v>
+      </c>
+      <c r="G335" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H335" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I335" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>20</v>
+      </c>
+      <c r="K335" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L335" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A336" s="18" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C336" s="22">
+        <v>120.7</v>
+      </c>
+      <c r="D336" s="22">
+        <v>1.97</v>
+      </c>
+      <c r="E336" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F336" s="23">
+        <f t="shared" si="20"/>
+        <v>16.570008285004143</v>
+      </c>
+      <c r="G336" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H336" s="20">
+        <f t="shared" si="19"/>
+        <v>3.4299917149958574</v>
+      </c>
+      <c r="I336" s="6">
+        <f t="shared" si="21"/>
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="J336">
+        <v>20</v>
+      </c>
+      <c r="K336" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L336" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="18" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C337" s="22">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D337" s="22">
+        <v>2.04</v>
+      </c>
+      <c r="E337" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F337" s="23">
+        <v>20</v>
+      </c>
+      <c r="G337" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H337" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I337" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>20</v>
+      </c>
+      <c r="K337" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L337" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A338" s="18" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C338" s="22">
+        <v>14.9</v>
+      </c>
+      <c r="D338" s="22">
+        <v>1.91</v>
+      </c>
+      <c r="E338" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="F338" s="23">
+        <v>20</v>
+      </c>
+      <c r="G338" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H338" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I338" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>20</v>
+      </c>
+      <c r="K338" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L338" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A339" s="18" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C339" s="22">
+        <v>35.9</v>
+      </c>
+      <c r="D339" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="E339" s="22">
+        <v>2.17</v>
+      </c>
+      <c r="F339" s="23">
+        <v>20</v>
+      </c>
+      <c r="G339" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H339" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I339" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>20</v>
+      </c>
+      <c r="K339" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L339" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="18" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C340" s="22">
+        <v>39.5</v>
+      </c>
+      <c r="D340" s="22">
+        <v>2.06</v>
+      </c>
+      <c r="E340" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="F340" s="23">
+        <v>20</v>
+      </c>
+      <c r="G340" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H340" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I340" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>20</v>
+      </c>
+      <c r="K340" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L340" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A341" s="18" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C341" s="22">
+        <v>10.3</v>
+      </c>
+      <c r="D341" s="22">
+        <v>1.96</v>
+      </c>
+      <c r="E341" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="F341" s="23">
+        <v>20</v>
+      </c>
+      <c r="G341" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H341" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I341" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>20</v>
+      </c>
+      <c r="K341" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L341" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="18" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C342" s="22">
+        <v>95</v>
+      </c>
+      <c r="D342" s="22">
+        <v>2.06</v>
+      </c>
+      <c r="E342" s="22">
+        <v>2.14</v>
+      </c>
+      <c r="F342" s="23">
+        <v>20</v>
+      </c>
+      <c r="G342" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H342" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I342" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>20</v>
+      </c>
+      <c r="K342" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L342" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A343" s="18" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C343" s="22">
+        <v>12.8</v>
+      </c>
+      <c r="D343" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="E343" s="22">
+        <v>1.57</v>
+      </c>
+      <c r="F343" s="23">
+        <v>20</v>
+      </c>
+      <c r="G343" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H343" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I343" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>20</v>
+      </c>
+      <c r="K343" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L343" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="18" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C344" s="22">
+        <v>15.8</v>
+      </c>
+      <c r="D344">
+        <v>1.98</v>
+      </c>
+      <c r="E344" s="22">
+        <v>2.06</v>
+      </c>
+      <c r="F344" s="23">
+        <v>20</v>
+      </c>
+      <c r="G344" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H344" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I344" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>20</v>
+      </c>
+      <c r="K344" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L344" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C345" s="22">
+        <v>7.7</v>
+      </c>
+      <c r="D345">
+        <v>1.97</v>
+      </c>
+      <c r="E345" s="22">
+        <v>1.84</v>
+      </c>
+      <c r="F345" s="23">
+        <v>20</v>
+      </c>
+      <c r="G345" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H345" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I345" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>20</v>
+      </c>
+      <c r="K345" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L345" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A346" s="18" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C346" s="22">
+        <v>16</v>
+      </c>
+      <c r="D346">
+        <v>1.88</v>
+      </c>
+      <c r="E346" s="22">
+        <v>2.04</v>
+      </c>
+      <c r="F346" s="23">
+        <v>20</v>
+      </c>
+      <c r="G346" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H346" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I346" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>20</v>
+      </c>
+      <c r="K346" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L346" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="18" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C347" s="22">
+        <v>14.6</v>
+      </c>
+      <c r="D347">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E347" s="22">
+        <v>1.76</v>
+      </c>
+      <c r="F347" s="23">
+        <v>20</v>
+      </c>
+      <c r="G347" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H347" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I347" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>20</v>
+      </c>
+      <c r="K347" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L347" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C348" s="22">
+        <v>42</v>
+      </c>
+      <c r="D348">
+        <v>1.89</v>
+      </c>
+      <c r="E348" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="F348" s="23">
+        <v>20</v>
+      </c>
+      <c r="G348" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H348" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I348" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>20</v>
+      </c>
+      <c r="K348" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L348" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A349" s="18" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C349" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D349">
+        <v>2.1</v>
+      </c>
+      <c r="E349" s="22">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F349" s="23">
+        <v>20</v>
+      </c>
+      <c r="G349" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H349" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I349" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>20</v>
+      </c>
+      <c r="K349" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L349" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A350" s="18" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C350" s="22">
+        <v>154.6</v>
+      </c>
+      <c r="D350">
+        <v>1.98</v>
+      </c>
+      <c r="E350" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="F350" s="23">
+        <f t="shared" si="20"/>
+        <v>12.936610608020699</v>
+      </c>
+      <c r="G350" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H350" s="20">
+        <f t="shared" si="19"/>
+        <v>7.0633893919793014</v>
+      </c>
+      <c r="I350" s="6">
+        <f t="shared" si="21"/>
+        <v>1.546</v>
+      </c>
+      <c r="J350">
+        <v>20</v>
+      </c>
+      <c r="K350" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L350" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="18" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C351" s="22">
+        <v>111.8</v>
+      </c>
+      <c r="D351">
+        <v>1.87</v>
+      </c>
+      <c r="E351" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F351" s="23">
+        <f t="shared" si="20"/>
+        <v>17.889087656529519</v>
+      </c>
+      <c r="G351" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H351" s="20">
+        <f t="shared" si="19"/>
+        <v>2.1109123434704813</v>
+      </c>
+      <c r="I351" s="6">
+        <f t="shared" si="21"/>
+        <v>1.1179999999999999</v>
+      </c>
+      <c r="J351">
+        <v>20</v>
+      </c>
+      <c r="K351" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L351" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A352" s="18" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C352" s="22">
+        <v>185.2</v>
+      </c>
+      <c r="D352">
+        <v>1.89</v>
+      </c>
+      <c r="E352" s="22">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F352" s="23">
+        <f t="shared" si="20"/>
+        <v>10.799136069114471</v>
+      </c>
+      <c r="G352" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H352" s="20">
+        <f t="shared" si="19"/>
+        <v>9.2008639308855287</v>
+      </c>
+      <c r="I352" s="6">
+        <f t="shared" si="21"/>
+        <v>1.8519999999999999</v>
+      </c>
+      <c r="J352">
+        <v>20</v>
+      </c>
+      <c r="K352" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L352" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A353" s="18" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C353" s="22">
+        <v>12.7</v>
+      </c>
+      <c r="D353">
+        <v>1.99</v>
+      </c>
+      <c r="E353" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="F353" s="23">
+        <v>20</v>
+      </c>
+      <c r="G353" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H353" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I353" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>20</v>
+      </c>
+      <c r="K353" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L353" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="18" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C354" s="22">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="D354">
+        <v>1.98</v>
+      </c>
+      <c r="E354" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F354" s="23">
+        <f t="shared" ref="F354:F410" si="23">G354/C354</f>
+        <v>15.600624024961</v>
+      </c>
+      <c r="G354" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H354" s="20">
+        <f t="shared" ref="H354:H417" si="24">J354-F354</f>
+        <v>4.3993759750389998</v>
+      </c>
+      <c r="I354" s="6">
+        <f t="shared" si="21"/>
+        <v>1.2819999999999998</v>
+      </c>
+      <c r="J354">
+        <v>20</v>
+      </c>
+      <c r="K354" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L354" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A355" s="18" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C355" s="22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D355">
+        <v>1.97</v>
+      </c>
+      <c r="E355" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="F355" s="23">
+        <v>20</v>
+      </c>
+      <c r="G355" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H355" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I355" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>20</v>
+      </c>
+      <c r="K355" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L355" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="18" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C356" s="22">
+        <v>61</v>
+      </c>
+      <c r="D356">
+        <v>1.87</v>
+      </c>
+      <c r="E356" s="22">
+        <v>2.17</v>
+      </c>
+      <c r="F356" s="23">
+        <v>20</v>
+      </c>
+      <c r="G356" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H356" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I356" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>20</v>
+      </c>
+      <c r="K356" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L356" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A357" s="18" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C357" s="22">
+        <v>112.4</v>
+      </c>
+      <c r="D357">
+        <v>1.97</v>
+      </c>
+      <c r="E357" s="22">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F357" s="23">
+        <f t="shared" si="23"/>
+        <v>17.793594306049823</v>
+      </c>
+      <c r="G357" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H357" s="20">
+        <f t="shared" si="24"/>
+        <v>2.2064056939501775</v>
+      </c>
+      <c r="I357" s="6">
+        <f t="shared" si="21"/>
+        <v>1.1239999999999999</v>
+      </c>
+      <c r="J357">
+        <v>20</v>
+      </c>
+      <c r="K357" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L357" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="18" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C358" s="22">
+        <v>57.2</v>
+      </c>
+      <c r="D358">
+        <v>1.95</v>
+      </c>
+      <c r="E358" s="22">
+        <v>2.23</v>
+      </c>
+      <c r="F358" s="23">
+        <v>20</v>
+      </c>
+      <c r="G358" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H358" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I358" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>20</v>
+      </c>
+      <c r="K358" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L358" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="18" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C359" s="22">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D359">
+        <v>1.96</v>
+      </c>
+      <c r="E359" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F359" s="23">
+        <v>20</v>
+      </c>
+      <c r="G359" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H359" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I359" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>20</v>
+      </c>
+      <c r="K359" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L359" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A360" s="50" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B360" s="51"/>
+      <c r="C360" s="51">
+        <v>-0.3</v>
+      </c>
+      <c r="D360" s="51">
+        <v>0.88</v>
+      </c>
+      <c r="E360" s="51">
+        <v>-4.82</v>
+      </c>
+      <c r="F360" s="23">
+        <v>20</v>
+      </c>
+      <c r="G360" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H360" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I360" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>20</v>
+      </c>
+      <c r="K360" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L360" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A361" s="18" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C361">
+        <v>21.5</v>
+      </c>
+      <c r="D361" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="E361" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="F361" s="23">
+        <v>20</v>
+      </c>
+      <c r="G361" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H361" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I361" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>20</v>
+      </c>
+      <c r="K361" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L361" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A362" s="18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C362">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="D362" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="E362" s="22">
+        <v>2.27</v>
+      </c>
+      <c r="F362" s="23">
+        <f t="shared" si="23"/>
+        <v>6.7091580006709153</v>
+      </c>
+      <c r="G362" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H362" s="20">
+        <f t="shared" si="24"/>
+        <v>13.290841999329086</v>
+      </c>
+      <c r="I362" s="6">
+        <f t="shared" si="21"/>
+        <v>2.9810000000000003</v>
+      </c>
+      <c r="J362">
+        <v>20</v>
+      </c>
+      <c r="K362" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L362" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="18" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C363">
+        <v>13.5</v>
+      </c>
+      <c r="D363" s="22">
+        <v>1.82</v>
+      </c>
+      <c r="E363" s="22">
+        <v>2</v>
+      </c>
+      <c r="F363" s="23">
+        <v>20</v>
+      </c>
+      <c r="G363" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H363" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I363" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>20</v>
+      </c>
+      <c r="K363" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L363" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="18" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C364">
+        <v>12.3</v>
+      </c>
+      <c r="D364" s="22">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E364" s="22">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F364" s="23">
+        <v>20</v>
+      </c>
+      <c r="G364" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H364" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I364" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J364">
+        <v>20</v>
+      </c>
+      <c r="K364" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L364" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A365" s="18" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C365">
+        <v>26.7</v>
+      </c>
+      <c r="D365" s="22">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E365" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="F365" s="23">
+        <v>20</v>
+      </c>
+      <c r="G365" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H365" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I365" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>20</v>
+      </c>
+      <c r="K365" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L365" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C366">
+        <v>27.6</v>
+      </c>
+      <c r="D366" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="E366" s="22">
+        <v>2.12</v>
+      </c>
+      <c r="F366" s="23">
+        <v>20</v>
+      </c>
+      <c r="G366" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H366" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I366" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>20</v>
+      </c>
+      <c r="K366" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L366" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A367" s="18" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C367">
+        <v>61.9</v>
+      </c>
+      <c r="D367" s="22">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E367" s="22">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F367" s="23">
+        <v>20</v>
+      </c>
+      <c r="G367" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H367" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I367" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>20</v>
+      </c>
+      <c r="K367" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L367" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A368" s="18" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C368">
+        <v>14.1</v>
+      </c>
+      <c r="D368" s="22">
+        <v>1.91</v>
+      </c>
+      <c r="E368" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="F368" s="23">
+        <v>20</v>
+      </c>
+      <c r="G368" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H368" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I368" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J368">
+        <v>20</v>
+      </c>
+      <c r="K368" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L368" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A369" s="18" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C369">
+        <v>12.9</v>
+      </c>
+      <c r="D369" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="E369" s="22">
+        <v>1.91</v>
+      </c>
+      <c r="F369" s="23">
+        <v>20</v>
+      </c>
+      <c r="G369" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H369" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I369" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>20</v>
+      </c>
+      <c r="K369" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L369" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A370" s="18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C370">
+        <v>304.60000000000002</v>
+      </c>
+      <c r="D370" s="22">
+        <v>1.88</v>
+      </c>
+      <c r="E370" s="22">
+        <v>2.27</v>
+      </c>
+      <c r="F370" s="23">
+        <f t="shared" si="23"/>
+        <v>6.5659881812212735</v>
+      </c>
+      <c r="G370" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H370" s="20">
+        <f t="shared" si="24"/>
+        <v>13.434011818778727</v>
+      </c>
+      <c r="I370" s="6">
+        <f t="shared" si="21"/>
+        <v>3.0460000000000003</v>
+      </c>
+      <c r="J370">
+        <v>20</v>
+      </c>
+      <c r="K370" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L370" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A371" s="18" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C371">
+        <v>18.2</v>
+      </c>
+      <c r="D371" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="E371" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F371" s="23">
+        <v>20</v>
+      </c>
+      <c r="G371" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H371" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I371" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>20</v>
+      </c>
+      <c r="K371" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L371" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="18" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C372">
+        <v>8.4</v>
+      </c>
+      <c r="D372" s="22">
+        <v>1.97</v>
+      </c>
+      <c r="E372" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="F372" s="23">
+        <v>20</v>
+      </c>
+      <c r="G372" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H372" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I372" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>20</v>
+      </c>
+      <c r="K372" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L372" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="18" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C373">
+        <v>19.3</v>
+      </c>
+      <c r="D373" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="E373" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F373" s="23">
+        <v>20</v>
+      </c>
+      <c r="G373" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H373" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I373" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>20</v>
+      </c>
+      <c r="K373" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L373" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="18" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C374">
+        <v>25.5</v>
+      </c>
+      <c r="D374" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="E374" s="22">
+        <v>1.97</v>
+      </c>
+      <c r="F374" s="23">
+        <v>20</v>
+      </c>
+      <c r="G374" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H374" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I374" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>20</v>
+      </c>
+      <c r="K374" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L374" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A375" s="18" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C375">
+        <v>42.4</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="E375">
+        <v>1.98</v>
+      </c>
+      <c r="F375" s="23">
+        <v>20</v>
+      </c>
+      <c r="G375" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H375" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I375" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>20</v>
+      </c>
+      <c r="K375" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L375" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A376" s="18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C376">
+        <v>15.4</v>
+      </c>
+      <c r="D376" s="22">
+        <v>2.11</v>
+      </c>
+      <c r="E376" s="22">
+        <v>1.94</v>
+      </c>
+      <c r="F376" s="23">
+        <v>20</v>
+      </c>
+      <c r="G376" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H376" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I376" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>20</v>
+      </c>
+      <c r="K376" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L376" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="18" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C377">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D377" s="22">
+        <v>1.89</v>
+      </c>
+      <c r="E377" s="22">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F377" s="23">
+        <v>20</v>
+      </c>
+      <c r="G377" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H377" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I377" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>20</v>
+      </c>
+      <c r="K377" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L377" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="18" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C378">
+        <v>57</v>
+      </c>
+      <c r="D378" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="E378" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F378" s="23">
+        <v>20</v>
+      </c>
+      <c r="G378" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H378" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I378" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>20</v>
+      </c>
+      <c r="K378" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L378" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A379" s="18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C379">
+        <v>13</v>
+      </c>
+      <c r="D379" s="22">
+        <v>1.92</v>
+      </c>
+      <c r="E379" s="22">
+        <v>2.17</v>
+      </c>
+      <c r="F379" s="23">
+        <v>20</v>
+      </c>
+      <c r="G379" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H379" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I379" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>20</v>
+      </c>
+      <c r="K379" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L379" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A380" s="18" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C380">
+        <v>47</v>
+      </c>
+      <c r="D380" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="E380" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F380" s="23">
+        <v>20</v>
+      </c>
+      <c r="G380" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H380" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I380" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>20</v>
+      </c>
+      <c r="K380" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L380" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="18" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C381">
+        <v>53.1</v>
+      </c>
+      <c r="D381" s="22">
+        <v>1.88</v>
+      </c>
+      <c r="E381" s="22">
+        <v>2.21</v>
+      </c>
+      <c r="F381" s="23">
+        <v>20</v>
+      </c>
+      <c r="G381" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H381" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I381" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J381">
+        <v>20</v>
+      </c>
+      <c r="K381" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L381" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A382" s="18" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C382">
+        <v>10.1</v>
+      </c>
+      <c r="D382" s="22">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E382" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="F382" s="23">
+        <v>20</v>
+      </c>
+      <c r="G382" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H382" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I382" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J382">
+        <v>20</v>
+      </c>
+      <c r="K382" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L382" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C383">
+        <v>364.7</v>
+      </c>
+      <c r="D383" s="22">
+        <v>1.92</v>
+      </c>
+      <c r="E383" s="22">
+        <v>2.29</v>
+      </c>
+      <c r="F383" s="23">
+        <f t="shared" si="23"/>
+        <v>5.4839594187003016</v>
+      </c>
+      <c r="G383" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H383" s="20">
+        <f t="shared" si="24"/>
+        <v>14.516040581299698</v>
+      </c>
+      <c r="I383" s="6">
+        <f t="shared" si="21"/>
+        <v>3.6470000000000002</v>
+      </c>
+      <c r="J383">
+        <v>20</v>
+      </c>
+      <c r="K383" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L383" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="18" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C384">
+        <v>46.8</v>
+      </c>
+      <c r="D384" s="22">
+        <v>2</v>
+      </c>
+      <c r="E384" s="22">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F384" s="23">
+        <v>20</v>
+      </c>
+      <c r="G384" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H384" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I384" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>20</v>
+      </c>
+      <c r="K384" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L384" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A385" s="18" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C385">
+        <v>382</v>
+      </c>
+      <c r="D385" s="22">
+        <v>1.93</v>
+      </c>
+      <c r="E385" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F385" s="23">
+        <f t="shared" si="23"/>
+        <v>5.2356020942408374</v>
+      </c>
+      <c r="G385" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H385" s="20">
+        <f t="shared" si="24"/>
+        <v>14.764397905759163</v>
+      </c>
+      <c r="I385" s="6">
+        <f t="shared" si="21"/>
+        <v>3.8200000000000003</v>
+      </c>
+      <c r="J385">
+        <v>20</v>
+      </c>
+      <c r="K385" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L385" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C386">
+        <v>108.6</v>
+      </c>
+      <c r="D386" s="22">
+        <v>2.06</v>
+      </c>
+      <c r="E386" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F386" s="23">
+        <f t="shared" si="23"/>
+        <v>18.41620626151013</v>
+      </c>
+      <c r="G386" s="4">
+        <f t="shared" si="22"/>
+        <v>2000</v>
+      </c>
+      <c r="H386" s="20">
+        <f t="shared" si="24"/>
+        <v>1.5837937384898702</v>
+      </c>
+      <c r="I386" s="6">
+        <f t="shared" ref="I386:I429" si="25">(J386/F386)</f>
+        <v>1.0859999999999999</v>
+      </c>
+      <c r="J386">
+        <v>20</v>
+      </c>
+      <c r="K386" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L386" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A387" s="18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C387">
+        <v>8</v>
+      </c>
+      <c r="D387" s="22">
+        <v>1.83</v>
+      </c>
+      <c r="E387" s="22">
+        <v>2.29</v>
+      </c>
+      <c r="F387" s="23">
+        <v>20</v>
+      </c>
+      <c r="G387" s="4">
+        <f t="shared" ref="G387:G429" si="26">100*20</f>
+        <v>2000</v>
+      </c>
+      <c r="H387" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I387" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J387">
+        <v>20</v>
+      </c>
+      <c r="K387" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L387" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A388" s="18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C388">
+        <v>296</v>
+      </c>
+      <c r="D388" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="E388" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="F388" s="23">
+        <f t="shared" si="23"/>
+        <v>6.756756756756757</v>
+      </c>
+      <c r="G388" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H388" s="20">
+        <f t="shared" si="24"/>
+        <v>13.243243243243242</v>
+      </c>
+      <c r="I388" s="6">
+        <f t="shared" si="25"/>
+        <v>2.96</v>
+      </c>
+      <c r="J388">
+        <v>20</v>
+      </c>
+      <c r="K388" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L388" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="18" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C389">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D389" s="22">
+        <v>1.94</v>
+      </c>
+      <c r="E389" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="F389" s="23">
+        <v>20</v>
+      </c>
+      <c r="G389" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H389" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I389" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J389">
+        <v>20</v>
+      </c>
+      <c r="K389" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L389" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A390" s="18" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C390">
+        <v>30.8</v>
+      </c>
+      <c r="D390" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="E390" s="22">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F390" s="23">
+        <v>20</v>
+      </c>
+      <c r="G390" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H390" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I390" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J390">
+        <v>20</v>
+      </c>
+      <c r="K390" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L390" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A391" s="18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C391">
+        <v>85.2</v>
+      </c>
+      <c r="D391" s="22">
+        <v>2.06</v>
+      </c>
+      <c r="E391">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F391" s="23">
+        <v>20</v>
+      </c>
+      <c r="G391" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H391" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I391" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J391">
+        <v>20</v>
+      </c>
+      <c r="K391" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L391" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A392" s="18" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C392">
+        <v>97.4</v>
+      </c>
+      <c r="D392" s="22">
+        <v>1.88</v>
+      </c>
+      <c r="E392" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F392" s="23">
+        <v>20</v>
+      </c>
+      <c r="G392" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H392" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I392" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>20</v>
+      </c>
+      <c r="K392" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L392" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C393">
+        <v>109.4</v>
+      </c>
+      <c r="D393" s="22">
+        <v>1.96</v>
+      </c>
+      <c r="E393" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="F393" s="23">
+        <f t="shared" si="23"/>
+        <v>18.281535648994513</v>
+      </c>
+      <c r="G393" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H393" s="20">
+        <f t="shared" si="24"/>
+        <v>1.7184643510054869</v>
+      </c>
+      <c r="I393" s="6">
+        <f t="shared" si="25"/>
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="J393">
+        <v>20</v>
+      </c>
+      <c r="K393" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L393" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C394">
+        <v>326.5</v>
+      </c>
+      <c r="D394" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="E394" s="22">
+        <v>2.23</v>
+      </c>
+      <c r="F394" s="23">
+        <f t="shared" si="23"/>
+        <v>6.1255742725880555</v>
+      </c>
+      <c r="G394" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H394" s="20">
+        <f t="shared" si="24"/>
+        <v>13.874425727411944</v>
+      </c>
+      <c r="I394" s="6">
+        <f t="shared" si="25"/>
+        <v>3.2649999999999997</v>
+      </c>
+      <c r="J394">
+        <v>20</v>
+      </c>
+      <c r="K394" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L394" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A395" s="18" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C395">
+        <v>33.4</v>
+      </c>
+      <c r="D395" s="22">
+        <v>1.97</v>
+      </c>
+      <c r="E395" s="22">
+        <v>2.17</v>
+      </c>
+      <c r="F395" s="23">
+        <v>20</v>
+      </c>
+      <c r="G395" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H395" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I395" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>20</v>
+      </c>
+      <c r="K395" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L395" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A396" s="18" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C396">
+        <v>43.6</v>
+      </c>
+      <c r="D396" s="22">
+        <v>1.99</v>
+      </c>
+      <c r="E396" s="22">
+        <v>2.29</v>
+      </c>
+      <c r="F396" s="23">
+        <v>20</v>
+      </c>
+      <c r="G396" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H396" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I396" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J396">
+        <v>20</v>
+      </c>
+      <c r="K396" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L396" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="18" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C397">
+        <v>65.3</v>
+      </c>
+      <c r="D397" s="22">
+        <v>1.83</v>
+      </c>
+      <c r="E397" s="22">
+        <v>2.34</v>
+      </c>
+      <c r="F397" s="23">
+        <v>20</v>
+      </c>
+      <c r="G397" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H397" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I397" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>20</v>
+      </c>
+      <c r="K397" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L397" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="18" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C398">
+        <v>40.5</v>
+      </c>
+      <c r="D398" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="E398" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="F398" s="23">
+        <v>20</v>
+      </c>
+      <c r="G398" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H398" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I398" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>20</v>
+      </c>
+      <c r="K398" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L398" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="18" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C399">
+        <v>6.9</v>
+      </c>
+      <c r="D399" s="22">
+        <v>1.58</v>
+      </c>
+      <c r="E399" s="22">
+        <v>2.78</v>
+      </c>
+      <c r="F399" s="23">
+        <v>20</v>
+      </c>
+      <c r="G399" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H399" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I399" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>20</v>
+      </c>
+      <c r="K399" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L399" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="18" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C400">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="D400" s="22">
+        <v>1.99</v>
+      </c>
+      <c r="E400" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F400" s="23">
+        <v>20</v>
+      </c>
+      <c r="G400" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H400" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I400" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>20</v>
+      </c>
+      <c r="K400" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L400" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A401" s="18" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C401">
+        <v>916.3</v>
+      </c>
+      <c r="D401" s="22">
+        <v>1.88</v>
+      </c>
+      <c r="E401" s="22">
+        <v>2.33</v>
+      </c>
+      <c r="F401" s="23">
+        <f t="shared" si="23"/>
+        <v>2.1826912583215106</v>
+      </c>
+      <c r="G401" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H401" s="20">
+        <f t="shared" si="24"/>
+        <v>17.817308741678488</v>
+      </c>
+      <c r="I401" s="6">
+        <f t="shared" si="25"/>
+        <v>9.1630000000000003</v>
+      </c>
+      <c r="J401">
+        <v>20</v>
+      </c>
+      <c r="K401" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L401" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A402" s="18" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C402">
+        <v>8</v>
+      </c>
+      <c r="D402" s="22">
+        <v>1.78</v>
+      </c>
+      <c r="E402" s="22">
+        <v>2.14</v>
+      </c>
+      <c r="F402" s="23">
+        <v>20</v>
+      </c>
+      <c r="G402" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H402" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I402" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>20</v>
+      </c>
+      <c r="K402" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L402" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A403" s="18" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C403">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D403" s="22">
+        <v>1.96</v>
+      </c>
+      <c r="E403" s="22">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F403" s="23">
+        <v>20</v>
+      </c>
+      <c r="G403" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H403" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I403" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J403">
+        <v>20</v>
+      </c>
+      <c r="K403" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L403" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="18" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C404">
+        <v>7.8</v>
+      </c>
+      <c r="D404" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="E404" s="22">
+        <v>2.14</v>
+      </c>
+      <c r="F404" s="23">
+        <v>20</v>
+      </c>
+      <c r="G404" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H404" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I404" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>20</v>
+      </c>
+      <c r="K404" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L404" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A405" s="18" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C405">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D405" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="E405" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="F405" s="23">
+        <v>20</v>
+      </c>
+      <c r="G405" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H405" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I405" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>20</v>
+      </c>
+      <c r="K405" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L405" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="18" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C406">
+        <v>793</v>
+      </c>
+      <c r="D406" s="22">
+        <v>1.86</v>
+      </c>
+      <c r="E406" s="22">
+        <v>2.29</v>
+      </c>
+      <c r="F406" s="23">
+        <f t="shared" si="23"/>
+        <v>2.5220680958385877</v>
+      </c>
+      <c r="G406" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H406" s="20">
+        <f t="shared" si="24"/>
+        <v>17.477931904161412</v>
+      </c>
+      <c r="I406" s="6">
+        <f t="shared" si="25"/>
+        <v>7.93</v>
+      </c>
+      <c r="J406">
+        <v>20</v>
+      </c>
+      <c r="K406" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L406" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A407" s="18" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C407">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D407" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="E407" s="22">
+        <v>3.18</v>
+      </c>
+      <c r="F407" s="23">
+        <v>20</v>
+      </c>
+      <c r="G407" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H407" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I407" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J407">
+        <v>20</v>
+      </c>
+      <c r="K407" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L407" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A408" s="18" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C408">
+        <v>16.8</v>
+      </c>
+      <c r="D408" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="E408" s="22">
+        <v>4.07</v>
+      </c>
+      <c r="F408" s="23">
+        <v>20</v>
+      </c>
+      <c r="G408" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H408" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I408" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J408">
+        <v>20</v>
+      </c>
+      <c r="K408" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L408" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" s="18" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C409">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="D409" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="E409" s="22">
+        <v>1.94</v>
+      </c>
+      <c r="F409" s="23">
+        <f t="shared" si="23"/>
+        <v>15.588464536243178</v>
+      </c>
+      <c r="G409" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H409" s="20">
+        <f t="shared" si="24"/>
+        <v>4.411535463756822</v>
+      </c>
+      <c r="I409" s="6">
+        <f t="shared" si="25"/>
+        <v>1.2830000000000001</v>
+      </c>
+      <c r="J409">
+        <v>20</v>
+      </c>
+      <c r="K409" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L409" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A410" s="18" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C410">
+        <v>246.8</v>
+      </c>
+      <c r="D410" s="22">
+        <v>1.89</v>
+      </c>
+      <c r="E410" s="22">
+        <v>2.35</v>
+      </c>
+      <c r="F410" s="23">
+        <f t="shared" si="23"/>
+        <v>8.1037277147487838</v>
+      </c>
+      <c r="G410" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H410" s="20">
+        <f t="shared" si="24"/>
+        <v>11.896272285251216</v>
+      </c>
+      <c r="I410" s="6">
+        <f t="shared" si="25"/>
+        <v>2.468</v>
+      </c>
+      <c r="J410">
+        <v>20</v>
+      </c>
+      <c r="K410" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L410" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A411" s="18" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C411">
+        <v>25.7</v>
+      </c>
+      <c r="D411" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="E411" s="22">
+        <v>2.94</v>
+      </c>
+      <c r="F411" s="23">
+        <v>20</v>
+      </c>
+      <c r="G411" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H411" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I411" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>20</v>
+      </c>
+      <c r="K411" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L411" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A412" s="18" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C412">
+        <v>10.9</v>
+      </c>
+      <c r="D412" s="22">
+        <v>1.74</v>
+      </c>
+      <c r="E412" s="22">
+        <v>3.97</v>
+      </c>
+      <c r="F412" s="23">
+        <v>20</v>
+      </c>
+      <c r="G412" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H412" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I412" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>20</v>
+      </c>
+      <c r="K412" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L412" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C413">
+        <v>7.6</v>
+      </c>
+      <c r="D413" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="E413" s="22">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F413" s="23">
+        <v>20</v>
+      </c>
+      <c r="G413" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H413" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I413" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J413">
+        <v>20</v>
+      </c>
+      <c r="K413" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L413" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="18" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C414">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D414" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="E414" s="22">
+        <v>2.31</v>
+      </c>
+      <c r="F414" s="23">
+        <v>20</v>
+      </c>
+      <c r="G414" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H414" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I414" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J414">
+        <v>20</v>
+      </c>
+      <c r="K414" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L414" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A415" s="18" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C415">
+        <v>35.1</v>
+      </c>
+      <c r="D415" s="22">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E415" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F415" s="23">
+        <v>20</v>
+      </c>
+      <c r="G415" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H415" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I415" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J415">
+        <v>20</v>
+      </c>
+      <c r="K415" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L415" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" s="18" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C416">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D416" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="E416" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F416" s="23">
+        <v>20</v>
+      </c>
+      <c r="G416" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H416" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I416" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J416">
+        <v>20</v>
+      </c>
+      <c r="K416" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L416" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A417" s="18" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C417">
+        <v>5</v>
+      </c>
+      <c r="D417" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="E417" s="22">
+        <v>1.58</v>
+      </c>
+      <c r="F417" s="23">
+        <v>20</v>
+      </c>
+      <c r="G417" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H417" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I417" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J417">
+        <v>20</v>
+      </c>
+      <c r="K417" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L417" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="18" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C418">
+        <v>12.2</v>
+      </c>
+      <c r="D418" s="22">
+        <v>1.87</v>
+      </c>
+      <c r="E418" s="22">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F418" s="23">
+        <v>20</v>
+      </c>
+      <c r="G418" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H418" s="20">
+        <f t="shared" ref="H418:H429" si="27">J418-F418</f>
+        <v>0</v>
+      </c>
+      <c r="I418" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J418">
+        <v>20</v>
+      </c>
+      <c r="K418" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L418" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C419">
+        <v>27.6</v>
+      </c>
+      <c r="D419" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="E419" s="22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F419" s="23">
+        <v>20</v>
+      </c>
+      <c r="G419" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H419" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I419" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J419">
+        <v>20</v>
+      </c>
+      <c r="K419" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L419" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C420">
+        <v>287.5</v>
+      </c>
+      <c r="D420" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="E420" s="22">
+        <v>2.29</v>
+      </c>
+      <c r="F420" s="23">
+        <f t="shared" ref="F420:F428" si="28">G420/C420</f>
+        <v>6.9565217391304346</v>
+      </c>
+      <c r="G420" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H420" s="20">
+        <f t="shared" si="27"/>
+        <v>13.043478260869566</v>
+      </c>
+      <c r="I420" s="6">
+        <f t="shared" si="25"/>
+        <v>2.875</v>
+      </c>
+      <c r="J420">
+        <v>20</v>
+      </c>
+      <c r="K420" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L420" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A421" s="18" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C421">
+        <v>31.2</v>
+      </c>
+      <c r="D421" s="22">
+        <v>1.92</v>
+      </c>
+      <c r="E421" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F421" s="23">
+        <v>20</v>
+      </c>
+      <c r="G421" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H421" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I421" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J421">
+        <v>20</v>
+      </c>
+      <c r="K421" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L421" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A422" s="18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C422">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D422" s="22">
+        <v>1.99</v>
+      </c>
+      <c r="E422" s="22">
+        <v>2.11</v>
+      </c>
+      <c r="F422" s="23">
+        <v>20</v>
+      </c>
+      <c r="G422" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H422" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I422" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J422">
+        <v>20</v>
+      </c>
+      <c r="K422" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L422" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A423" s="18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C423">
+        <v>115.3</v>
+      </c>
+      <c r="D423" s="22">
+        <v>1.86</v>
+      </c>
+      <c r="E423" s="22">
+        <v>2.29</v>
+      </c>
+      <c r="F423" s="23">
+        <f t="shared" si="28"/>
+        <v>17.346053772766695</v>
+      </c>
+      <c r="G423" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H423" s="20">
+        <f t="shared" si="27"/>
+        <v>2.6539462272333054</v>
+      </c>
+      <c r="I423" s="6">
+        <f t="shared" si="25"/>
+        <v>1.153</v>
+      </c>
+      <c r="J423">
+        <v>20</v>
+      </c>
+      <c r="K423" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L423" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A424" s="18" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C424">
+        <v>82.2</v>
+      </c>
+      <c r="D424" s="22">
+        <v>1.97</v>
+      </c>
+      <c r="E424" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F424" s="23">
+        <v>20</v>
+      </c>
+      <c r="G424" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H424" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I424" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J424">
+        <v>20</v>
+      </c>
+      <c r="K424" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L424" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A425" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C425">
+        <v>45.7</v>
+      </c>
+      <c r="D425" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="E425" s="22">
+        <v>2.39</v>
+      </c>
+      <c r="F425" s="23">
+        <v>20</v>
+      </c>
+      <c r="G425" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H425" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I425" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J425">
+        <v>20</v>
+      </c>
+      <c r="K425" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A426" s="18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C426">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="D426" s="22">
+        <v>1.94</v>
+      </c>
+      <c r="E426" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F426" s="23">
+        <f t="shared" si="28"/>
+        <v>14.204545454545453</v>
+      </c>
+      <c r="G426" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H426" s="20">
+        <f t="shared" si="27"/>
+        <v>5.7954545454545467</v>
+      </c>
+      <c r="I426" s="6">
+        <f t="shared" si="25"/>
+        <v>1.4080000000000001</v>
+      </c>
+      <c r="J426">
+        <v>20</v>
+      </c>
+      <c r="K426" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A427" s="18" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C427">
+        <v>16</v>
+      </c>
+      <c r="D427" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="E427" s="22">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F427" s="23">
+        <v>20</v>
+      </c>
+      <c r="G427" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H427" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I427" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J427">
+        <v>20</v>
+      </c>
+      <c r="K427" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="18" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C428">
+        <v>313.7</v>
+      </c>
+      <c r="D428" s="22">
+        <v>1.86</v>
+      </c>
+      <c r="E428" s="22">
+        <v>2.23</v>
+      </c>
+      <c r="F428" s="23">
+        <f t="shared" si="28"/>
+        <v>6.3755180108383804</v>
+      </c>
+      <c r="G428" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H428" s="20">
+        <f t="shared" si="27"/>
+        <v>13.62448198916162</v>
+      </c>
+      <c r="I428" s="6">
+        <f t="shared" si="25"/>
+        <v>3.137</v>
+      </c>
+      <c r="J428">
+        <v>20</v>
+      </c>
+      <c r="K428" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C429">
+        <v>35.5</v>
+      </c>
+      <c r="D429" s="22">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E429" s="22">
+        <v>2.38</v>
+      </c>
+      <c r="F429" s="23">
+        <v>20</v>
+      </c>
+      <c r="G429" s="4">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="H429" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I429" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J429">
+        <v>20</v>
+      </c>
+      <c r="K429" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A430" s="18"/>
+    </row>
+    <row r="431" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A431" s="18"/>
+    </row>
+    <row r="432" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" s="18"/>
+    </row>
+    <row r="433" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A433" s="18"/>
+    </row>
+    <row r="434" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A434" s="18"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F298">
-    <cfRule type="expression" dxfId="17" priority="2">
+  <conditionalFormatting sqref="F2:F429">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>C2&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H298">
-    <cfRule type="expression" dxfId="18" priority="1">
+  <conditionalFormatting sqref="H2:H429">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
